--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>94951</v>
+        <v>95078</v>
       </c>
       <c r="D2">
-        <v>18938</v>
+        <v>18939</v>
       </c>
       <c r="E2">
-        <v>308191347</v>
+        <v>308935933</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>233471</v>
+        <v>233710</v>
       </c>
       <c r="D3">
-        <v>47375</v>
+        <v>47378</v>
       </c>
       <c r="E3">
-        <v>972384854</v>
+        <v>973963428</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>95198</v>
+        <v>95294</v>
       </c>
       <c r="D4">
-        <v>18650</v>
+        <v>18651</v>
       </c>
       <c r="E4">
-        <v>573572962</v>
+        <v>574728164</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>35687</v>
+        <v>35752</v>
       </c>
       <c r="D5">
         <v>6605</v>
       </c>
       <c r="E5">
-        <v>319474213</v>
+        <v>320511734</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18102</v>
+        <v>18130</v>
       </c>
       <c r="D6">
         <v>3247</v>
       </c>
       <c r="E6">
-        <v>306073422</v>
+        <v>306686194</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5797</v>
+        <v>5813</v>
       </c>
       <c r="D7">
         <v>1183</v>
       </c>
       <c r="E7">
-        <v>231596327</v>
+        <v>232557577</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D8">
         <v>184</v>
       </c>
       <c r="E8">
-        <v>67323054</v>
+        <v>68229830</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>104929</v>
+        <v>105091</v>
       </c>
       <c r="D14">
-        <v>20875</v>
+        <v>20877</v>
       </c>
       <c r="E14">
-        <v>238671187</v>
+        <v>239325678</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>23421</v>
+        <v>23429</v>
       </c>
       <c r="D15">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="E15">
-        <v>75661273</v>
+        <v>75685041</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>64283</v>
+        <v>64343</v>
       </c>
       <c r="D16">
-        <v>13562</v>
+        <v>13564</v>
       </c>
       <c r="E16">
-        <v>263960180</v>
+        <v>264327139</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>23910</v>
+        <v>23920</v>
       </c>
       <c r="D17">
         <v>4978</v>
       </c>
       <c r="E17">
-        <v>136846559</v>
+        <v>136974648</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8019</v>
+        <v>8023</v>
       </c>
       <c r="D18">
         <v>1625</v>
       </c>
       <c r="E18">
-        <v>63648830</v>
+        <v>63696689</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="D19">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E19">
-        <v>57642631</v>
+        <v>57702433</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D20">
         <v>279</v>
       </c>
       <c r="E20">
-        <v>44175286</v>
+        <v>44180043</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22319</v>
+        <v>22334</v>
       </c>
       <c r="D23">
-        <v>5052</v>
+        <v>5053</v>
       </c>
       <c r="E23">
-        <v>45586752</v>
+        <v>45625601</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>33925</v>
+        <v>33948</v>
       </c>
       <c r="D24">
         <v>6479</v>
       </c>
       <c r="E24">
-        <v>126340549</v>
+        <v>126451145</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>80842</v>
+        <v>80888</v>
       </c>
       <c r="D25">
         <v>16434</v>
       </c>
       <c r="E25">
-        <v>356072048</v>
+        <v>356409185</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>31642</v>
+        <v>31670</v>
       </c>
       <c r="D26">
         <v>6470</v>
       </c>
       <c r="E26">
-        <v>189813507</v>
+        <v>190098888</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>10890</v>
+        <v>10908</v>
       </c>
       <c r="D27">
         <v>2233</v>
       </c>
       <c r="E27">
-        <v>93224556</v>
+        <v>93506615</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5114</v>
+        <v>5128</v>
       </c>
       <c r="D28">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E28">
-        <v>76131726</v>
+        <v>76350902</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D29">
         <v>332</v>
       </c>
       <c r="E29">
-        <v>61584637</v>
+        <v>61654065</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>24275</v>
+        <v>24287</v>
       </c>
       <c r="D34">
         <v>5600</v>
       </c>
       <c r="E34">
-        <v>49668189</v>
+        <v>49695307</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>18245</v>
+        <v>18253</v>
       </c>
       <c r="D35">
         <v>3776</v>
       </c>
       <c r="E35">
-        <v>58651226</v>
+        <v>58685981</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>53532</v>
+        <v>53569</v>
       </c>
       <c r="D36">
         <v>11682</v>
       </c>
       <c r="E36">
-        <v>210909371</v>
+        <v>211105219</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>21446</v>
+        <v>21455</v>
       </c>
       <c r="D37">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E37">
-        <v>120340146</v>
+        <v>120416652</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>6636</v>
+        <v>6638</v>
       </c>
       <c r="D38">
         <v>1426</v>
       </c>
       <c r="E38">
-        <v>51887914</v>
+        <v>51906414</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="D39">
         <v>618</v>
       </c>
       <c r="E39">
-        <v>49905203</v>
+        <v>49952254</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D40">
         <v>203</v>
       </c>
       <c r="E40">
-        <v>31496298</v>
+        <v>31506298</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>17369</v>
+        <v>17378</v>
       </c>
       <c r="D42">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="E42">
-        <v>34867170</v>
+        <v>34884811</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10040</v>
+        <v>10047</v>
       </c>
       <c r="D43">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E43">
-        <v>40628946</v>
+        <v>40649326</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22271</v>
+        <v>22284</v>
       </c>
       <c r="D44">
         <v>3847</v>
       </c>
       <c r="E44">
-        <v>94688989</v>
+        <v>94781385</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>10319</v>
+        <v>10333</v>
       </c>
       <c r="D45">
         <v>1770</v>
       </c>
       <c r="E45">
-        <v>62565350</v>
+        <v>62678861</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="D46">
         <v>601</v>
       </c>
       <c r="E46">
-        <v>29643166</v>
+        <v>29680967</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D47">
         <v>281</v>
       </c>
       <c r="E47">
-        <v>28034373</v>
+        <v>28104857</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -1958,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D48">
         <v>84</v>
       </c>
       <c r="E48">
-        <v>19239736</v>
+        <v>19318864</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -1987,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>4383765</v>
+        <v>4564350</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6051</v>
+        <v>6056</v>
       </c>
       <c r="D50">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E50">
-        <v>11664424</v>
+        <v>11676479</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>43987</v>
+        <v>44035</v>
       </c>
       <c r="D51">
-        <v>9391</v>
+        <v>9392</v>
       </c>
       <c r="E51">
-        <v>146336869</v>
+        <v>146650302</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>132011</v>
+        <v>132137</v>
       </c>
       <c r="D52">
-        <v>28673</v>
+        <v>28674</v>
       </c>
       <c r="E52">
-        <v>548886461</v>
+        <v>549771460</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>55380</v>
+        <v>55423</v>
       </c>
       <c r="D53">
         <v>11618</v>
       </c>
       <c r="E53">
-        <v>318618894</v>
+        <v>319079165</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>20958</v>
+        <v>20975</v>
       </c>
       <c r="D54">
         <v>4082</v>
       </c>
       <c r="E54">
-        <v>167419962</v>
+        <v>167596705</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10285</v>
+        <v>10300</v>
       </c>
       <c r="D55">
         <v>1797</v>
       </c>
       <c r="E55">
-        <v>156874965</v>
+        <v>157096609</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>3049</v>
+        <v>3054</v>
       </c>
       <c r="D56">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E56">
-        <v>114321768</v>
+        <v>114451473</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2248,13 +2248,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>14</v>
       </c>
       <c r="E58">
-        <v>2830290</v>
+        <v>2927936</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>48629</v>
+        <v>48682</v>
       </c>
       <c r="D60">
         <v>11423</v>
       </c>
       <c r="E60">
-        <v>125756458</v>
+        <v>125930346</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="D61">
         <v>781</v>
       </c>
       <c r="E61">
-        <v>7693814</v>
+        <v>7703174</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>11931</v>
+        <v>11937</v>
       </c>
       <c r="D62">
         <v>2775</v>
       </c>
       <c r="E62">
-        <v>29023648</v>
+        <v>29037906</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>4095</v>
+        <v>4100</v>
       </c>
       <c r="D63">
         <v>1032</v>
       </c>
       <c r="E63">
-        <v>13851290</v>
+        <v>13885109</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D64">
         <v>386</v>
       </c>
       <c r="E64">
-        <v>7515794</v>
+        <v>7524294</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D65">
         <v>122</v>
       </c>
       <c r="E65">
-        <v>4864224</v>
+        <v>4878730</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>13323</v>
+        <v>13349</v>
       </c>
       <c r="D69">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="E69">
-        <v>21414016</v>
+        <v>21456548</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="D70">
         <v>372</v>
       </c>
       <c r="E70">
-        <v>5376629</v>
+        <v>5384415</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5537</v>
+        <v>5540</v>
       </c>
       <c r="D71">
         <v>950</v>
       </c>
       <c r="E71">
-        <v>13561631</v>
+        <v>13572022</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D72">
         <v>410</v>
       </c>
       <c r="E72">
-        <v>6164048</v>
+        <v>6174048</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2683,13 +2683,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D73">
         <v>145</v>
       </c>
       <c r="E73">
-        <v>2603623</v>
+        <v>2615325</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D76">
         <v>554</v>
       </c>
       <c r="E76">
-        <v>7182690</v>
+        <v>7184190</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>36500</v>
+        <v>36531</v>
       </c>
       <c r="D77">
         <v>7443</v>
       </c>
       <c r="E77">
-        <v>107579420</v>
+        <v>107815211</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>109302</v>
+        <v>109386</v>
       </c>
       <c r="D78">
         <v>22703</v>
       </c>
       <c r="E78">
-        <v>420908377</v>
+        <v>421414511</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>44582</v>
+        <v>44613</v>
       </c>
       <c r="D79">
         <v>9039</v>
       </c>
       <c r="E79">
-        <v>250022232</v>
+        <v>250291235</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>15828</v>
+        <v>15846</v>
       </c>
       <c r="D80">
         <v>3200</v>
       </c>
       <c r="E80">
-        <v>118899100</v>
+        <v>119201175</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>7360</v>
+        <v>7369</v>
       </c>
       <c r="D81">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E81">
-        <v>106464099</v>
+        <v>106569657</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2867</v>
+        <v>2873</v>
       </c>
       <c r="D82">
         <v>613</v>
       </c>
       <c r="E82">
-        <v>97938389</v>
+        <v>98237078</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>32577</v>
+        <v>32595</v>
       </c>
       <c r="D89">
         <v>7202</v>
       </c>
       <c r="E89">
-        <v>64390558</v>
+        <v>64426042</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>138310</v>
+        <v>138432</v>
       </c>
       <c r="D90">
-        <v>24700</v>
+        <v>24702</v>
       </c>
       <c r="E90">
-        <v>433202727</v>
+        <v>433847883</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>373435</v>
+        <v>373802</v>
       </c>
       <c r="D91">
-        <v>70732</v>
+        <v>70736</v>
       </c>
       <c r="E91">
-        <v>1416919753</v>
+        <v>1419239304</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>186531</v>
+        <v>186729</v>
       </c>
       <c r="D92">
-        <v>34166</v>
+        <v>34169</v>
       </c>
       <c r="E92">
-        <v>1112193798</v>
+        <v>1114321917</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>80804</v>
+        <v>80893</v>
       </c>
       <c r="D93">
-        <v>13741</v>
+        <v>13742</v>
       </c>
       <c r="E93">
-        <v>728720833</v>
+        <v>729840444</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>41428</v>
+        <v>41480</v>
       </c>
       <c r="D94">
-        <v>6936</v>
+        <v>6937</v>
       </c>
       <c r="E94">
-        <v>704533986</v>
+        <v>705715234</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>12921</v>
+        <v>12950</v>
       </c>
       <c r="D95">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="E95">
-        <v>552553770</v>
+        <v>554086012</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="D96">
         <v>361</v>
       </c>
       <c r="E96">
-        <v>141895544</v>
+        <v>142511710</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3379,13 +3379,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D97">
         <v>172</v>
       </c>
       <c r="E97">
-        <v>83273612</v>
+        <v>84157044</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -3408,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D98">
         <v>35</v>
       </c>
       <c r="E98">
-        <v>19078167</v>
+        <v>19278167</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -3437,13 +3437,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D99">
         <v>82</v>
       </c>
       <c r="E99">
-        <v>39496788</v>
+        <v>39696788</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>124716</v>
+        <v>124807</v>
       </c>
       <c r="D103">
         <v>22747</v>
       </c>
       <c r="E103">
-        <v>251054066</v>
+        <v>251327101</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7443</v>
+        <v>7444</v>
       </c>
       <c r="D104">
         <v>1903</v>
       </c>
       <c r="E104">
-        <v>15039082</v>
+        <v>15040582</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>16817</v>
+        <v>16823</v>
       </c>
       <c r="D105">
         <v>4974</v>
       </c>
       <c r="E105">
-        <v>36888309</v>
+        <v>36912344</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>5553</v>
+        <v>5558</v>
       </c>
       <c r="D106">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E106">
-        <v>17008161</v>
+        <v>17042235</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="D107">
         <v>734</v>
       </c>
       <c r="E107">
-        <v>11300123</v>
+        <v>11334623</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D108">
         <v>227</v>
       </c>
       <c r="E108">
-        <v>11321554</v>
+        <v>11323054</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -3785,13 +3785,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111">
-        <v>649927</v>
+        <v>689646</v>
       </c>
       <c r="F111" t="s">
         <v>21</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8127</v>
+        <v>8129</v>
       </c>
       <c r="D112">
         <v>2079</v>
       </c>
       <c r="E112">
-        <v>11947543</v>
+        <v>11957851</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D113">
         <v>688</v>
       </c>
       <c r="E113">
-        <v>7639520</v>
+        <v>7641020</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>9614</v>
+        <v>9616</v>
       </c>
       <c r="D114">
         <v>2228</v>
       </c>
       <c r="E114">
-        <v>26667433</v>
+        <v>26671365</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D115">
         <v>953</v>
       </c>
       <c r="E115">
-        <v>13635689</v>
+        <v>13645689</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -3930,13 +3930,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D116">
         <v>374</v>
       </c>
       <c r="E116">
-        <v>6170986</v>
+        <v>6180986</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -3959,13 +3959,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D117">
         <v>151</v>
       </c>
       <c r="E117">
-        <v>5296599</v>
+        <v>5308588</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>6734</v>
+        <v>6736</v>
       </c>
       <c r="D120">
         <v>1419</v>
       </c>
       <c r="E120">
-        <v>10555696</v>
+        <v>10562304</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -4075,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="D121">
         <v>241</v>
       </c>
       <c r="E121">
-        <v>4164475</v>
+        <v>4204308</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>26516</v>
+        <v>26532</v>
       </c>
       <c r="D127">
         <v>5220</v>
       </c>
       <c r="E127">
-        <v>88825897</v>
+        <v>88940260</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>71200</v>
+        <v>71244</v>
       </c>
       <c r="D128">
         <v>15087</v>
       </c>
       <c r="E128">
-        <v>291254529</v>
+        <v>291521913</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>28158</v>
+        <v>28174</v>
       </c>
       <c r="D129">
         <v>5777</v>
       </c>
       <c r="E129">
-        <v>160928586</v>
+        <v>161156623</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>10090</v>
+        <v>10095</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130">
-        <v>81550189</v>
+        <v>81590953</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="D131">
         <v>839</v>
       </c>
       <c r="E131">
-        <v>69015517</v>
+        <v>69024846</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="D132">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E132">
-        <v>54591777</v>
+        <v>54771345</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4423,13 +4423,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D133">
         <v>39</v>
       </c>
       <c r="E133">
-        <v>10299050</v>
+        <v>10400469</v>
       </c>
       <c r="F133" t="s">
         <v>24</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>20287</v>
+        <v>20297</v>
       </c>
       <c r="D137">
         <v>4629</v>
       </c>
       <c r="E137">
-        <v>40505033</v>
+        <v>40544513</v>
       </c>
       <c r="F137" t="s">
         <v>24</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>76306</v>
+        <v>76374</v>
       </c>
       <c r="D138">
         <v>14940</v>
       </c>
       <c r="E138">
-        <v>266474593</v>
+        <v>266830578</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>158828</v>
+        <v>158990</v>
       </c>
       <c r="D139">
-        <v>34901</v>
+        <v>34903</v>
       </c>
       <c r="E139">
-        <v>641184748</v>
+        <v>642345994</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>59977</v>
+        <v>60036</v>
       </c>
       <c r="D140">
-        <v>12945</v>
+        <v>12946</v>
       </c>
       <c r="E140">
-        <v>342398658</v>
+        <v>343070633</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>22109</v>
+        <v>22124</v>
       </c>
       <c r="D141">
         <v>4560</v>
       </c>
       <c r="E141">
-        <v>177787128</v>
+        <v>177972036</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>10321</v>
+        <v>10328</v>
       </c>
       <c r="D142">
         <v>1949</v>
       </c>
       <c r="E142">
-        <v>157325971</v>
+        <v>157470925</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4713,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3591</v>
+        <v>3600</v>
       </c>
       <c r="D143">
         <v>735</v>
       </c>
       <c r="E143">
-        <v>135008935</v>
+        <v>135720865</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>54465</v>
+        <v>54506</v>
       </c>
       <c r="D149">
-        <v>13103</v>
+        <v>13104</v>
       </c>
       <c r="E149">
-        <v>110673880</v>
+        <v>110835839</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>94304</v>
+        <v>94387</v>
       </c>
       <c r="D150">
         <v>17245</v>
       </c>
       <c r="E150">
-        <v>322484927</v>
+        <v>322823978</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>190316</v>
+        <v>190509</v>
       </c>
       <c r="D151">
-        <v>39119</v>
+        <v>39121</v>
       </c>
       <c r="E151">
-        <v>742130465</v>
+        <v>743237012</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>67689</v>
+        <v>67758</v>
       </c>
       <c r="D152">
-        <v>13823</v>
+        <v>13824</v>
       </c>
       <c r="E152">
-        <v>384145812</v>
+        <v>384734514</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>23028</v>
+        <v>23063</v>
       </c>
       <c r="D153">
         <v>4616</v>
       </c>
       <c r="E153">
-        <v>179352366</v>
+        <v>179836842</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5032,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>10497</v>
+        <v>10522</v>
       </c>
       <c r="D154">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E154">
-        <v>155623871</v>
+        <v>156112226</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="D155">
         <v>683</v>
       </c>
       <c r="E155">
-        <v>119922985</v>
+        <v>119986085</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D156">
         <v>96</v>
       </c>
       <c r="E156">
-        <v>29845790</v>
+        <v>29890938</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>67898</v>
+        <v>67952</v>
       </c>
       <c r="D160">
         <v>15429</v>
       </c>
       <c r="E160">
-        <v>126886819</v>
+        <v>127035141</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>32398</v>
+        <v>32423</v>
       </c>
       <c r="D161">
-        <v>6480</v>
+        <v>6481</v>
       </c>
       <c r="E161">
-        <v>111770420</v>
+        <v>111898422</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>78714</v>
+        <v>78790</v>
       </c>
       <c r="D162">
-        <v>17076</v>
+        <v>17077</v>
       </c>
       <c r="E162">
-        <v>334060559</v>
+        <v>334645142</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>33126</v>
+        <v>33157</v>
       </c>
       <c r="D163">
-        <v>7055</v>
+        <v>7056</v>
       </c>
       <c r="E163">
-        <v>193146035</v>
+        <v>193568432</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>11045</v>
+        <v>11053</v>
       </c>
       <c r="D164">
         <v>2409</v>
       </c>
       <c r="E164">
-        <v>92841810</v>
+        <v>92951169</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5351,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>5386</v>
+        <v>5393</v>
       </c>
       <c r="D165">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E165">
-        <v>85651119</v>
+        <v>85820885</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
@@ -5380,13 +5380,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D166">
         <v>403</v>
       </c>
       <c r="E166">
-        <v>73958750</v>
+        <v>74062974</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D167">
         <v>43</v>
       </c>
       <c r="E167">
-        <v>9007697</v>
+        <v>9136620</v>
       </c>
       <c r="F167" t="s">
         <v>27</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>21684</v>
+        <v>21703</v>
       </c>
       <c r="D169">
         <v>5218</v>
       </c>
       <c r="E169">
-        <v>42964406</v>
+        <v>43013056</v>
       </c>
       <c r="F169" t="s">
         <v>27</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>91860</v>
+        <v>91941</v>
       </c>
       <c r="D170">
         <v>16787</v>
       </c>
       <c r="E170">
-        <v>311761261</v>
+        <v>312238584</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>212778</v>
+        <v>212959</v>
       </c>
       <c r="D171">
-        <v>40846</v>
+        <v>40847</v>
       </c>
       <c r="E171">
-        <v>847031350</v>
+        <v>848144067</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>75228</v>
+        <v>75290</v>
       </c>
       <c r="D172">
         <v>14024</v>
       </c>
       <c r="E172">
-        <v>445666419</v>
+        <v>446314857</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>26336</v>
+        <v>26366</v>
       </c>
       <c r="D173">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="E173">
-        <v>232626383</v>
+        <v>233043881</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>13079</v>
+        <v>13106</v>
       </c>
       <c r="D174">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E174">
-        <v>214812251</v>
+        <v>215589330</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>4192</v>
+        <v>4198</v>
       </c>
       <c r="D175">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E175">
-        <v>173043272</v>
+        <v>173316903</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5670,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D176">
         <v>123</v>
       </c>
       <c r="E176">
-        <v>40869386</v>
+        <v>41156119</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
@@ -5815,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>65356</v>
+        <v>65406</v>
       </c>
       <c r="D181">
         <v>13666</v>
       </c>
       <c r="E181">
-        <v>128144188</v>
+        <v>128274672</v>
       </c>
       <c r="F181" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>95078</v>
+        <v>95813</v>
       </c>
       <c r="D2">
         <v>18939</v>
       </c>
       <c r="E2">
-        <v>308935933</v>
+        <v>313024463</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>233710</v>
+        <v>235283</v>
       </c>
       <c r="D3">
-        <v>47378</v>
+        <v>47379</v>
       </c>
       <c r="E3">
-        <v>973963428</v>
+        <v>985859978</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>95294</v>
+        <v>96038</v>
       </c>
       <c r="D4">
-        <v>18651</v>
+        <v>18654</v>
       </c>
       <c r="E4">
-        <v>574728164</v>
+        <v>582119328</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>35752</v>
+        <v>36048</v>
       </c>
       <c r="D5">
-        <v>6605</v>
+        <v>6606</v>
       </c>
       <c r="E5">
-        <v>320511734</v>
+        <v>324821836</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18130</v>
+        <v>18314</v>
       </c>
       <c r="D6">
         <v>3247</v>
       </c>
       <c r="E6">
-        <v>306686194</v>
+        <v>310936625</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5813</v>
+        <v>5865</v>
       </c>
       <c r="D7">
         <v>1183</v>
       </c>
       <c r="E7">
-        <v>232557577</v>
+        <v>235545909</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D8">
         <v>184</v>
       </c>
       <c r="E8">
-        <v>68229830</v>
+        <v>69407839</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -827,13 +827,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D9">
         <v>59</v>
       </c>
       <c r="E9">
-        <v>25809629</v>
+        <v>26009629</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -885,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>6628905</v>
+        <v>6828905</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -943,13 +943,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>210500</v>
+        <v>410500</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>105091</v>
+        <v>105746</v>
       </c>
       <c r="D14">
-        <v>20877</v>
+        <v>20878</v>
       </c>
       <c r="E14">
-        <v>239325678</v>
+        <v>241560056</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>23429</v>
+        <v>23621</v>
       </c>
       <c r="D15">
         <v>4825</v>
       </c>
       <c r="E15">
-        <v>75685041</v>
+        <v>76871708</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>64343</v>
+        <v>64787</v>
       </c>
       <c r="D16">
-        <v>13564</v>
+        <v>13565</v>
       </c>
       <c r="E16">
-        <v>264327139</v>
+        <v>267719961</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>23920</v>
+        <v>24109</v>
       </c>
       <c r="D17">
         <v>4978</v>
       </c>
       <c r="E17">
-        <v>136974648</v>
+        <v>138835098</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8023</v>
+        <v>8099</v>
       </c>
       <c r="D18">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="E18">
-        <v>63696689</v>
+        <v>64781048</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3818</v>
+        <v>3854</v>
       </c>
       <c r="D19">
         <v>722</v>
       </c>
       <c r="E19">
-        <v>57702433</v>
+        <v>58430419</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1350</v>
+        <v>1366</v>
       </c>
       <c r="D20">
         <v>279</v>
       </c>
       <c r="E20">
-        <v>44180043</v>
+        <v>44713702</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1175,13 +1175,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D21">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>7936804</v>
+        <v>8219544</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22334</v>
+        <v>22489</v>
       </c>
       <c r="D23">
-        <v>5053</v>
+        <v>5054</v>
       </c>
       <c r="E23">
-        <v>45625601</v>
+        <v>46159560</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>33948</v>
+        <v>34251</v>
       </c>
       <c r="D24">
         <v>6479</v>
       </c>
       <c r="E24">
-        <v>126451145</v>
+        <v>128512077</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>80888</v>
+        <v>81493</v>
       </c>
       <c r="D25">
-        <v>16434</v>
+        <v>16435</v>
       </c>
       <c r="E25">
-        <v>356409185</v>
+        <v>361327130</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>31670</v>
+        <v>31939</v>
       </c>
       <c r="D26">
         <v>6470</v>
       </c>
       <c r="E26">
-        <v>190098888</v>
+        <v>192786234</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>10908</v>
+        <v>11010</v>
       </c>
       <c r="D27">
         <v>2233</v>
       </c>
       <c r="E27">
-        <v>93506615</v>
+        <v>94821511</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5128</v>
+        <v>5171</v>
       </c>
       <c r="D28">
         <v>983</v>
       </c>
       <c r="E28">
-        <v>76350902</v>
+        <v>77236093</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="D29">
         <v>332</v>
       </c>
       <c r="E29">
-        <v>61654065</v>
+        <v>62258056</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
       <c r="E30">
-        <v>8899010</v>
+        <v>8987135</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1465,13 +1465,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>3393731</v>
+        <v>3412985</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>24287</v>
+        <v>24423</v>
       </c>
       <c r="D34">
         <v>5600</v>
       </c>
       <c r="E34">
-        <v>49695307</v>
+        <v>50188221</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>18253</v>
+        <v>18395</v>
       </c>
       <c r="D35">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E35">
-        <v>58685981</v>
+        <v>59787018</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>53569</v>
+        <v>54009</v>
       </c>
       <c r="D36">
-        <v>11682</v>
+        <v>11686</v>
       </c>
       <c r="E36">
-        <v>211105219</v>
+        <v>214470916</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>21455</v>
+        <v>21645</v>
       </c>
       <c r="D37">
         <v>4647</v>
       </c>
       <c r="E37">
-        <v>120416652</v>
+        <v>122196896</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>6638</v>
+        <v>6699</v>
       </c>
       <c r="D38">
         <v>1426</v>
       </c>
       <c r="E38">
-        <v>51906414</v>
+        <v>52592549</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3196</v>
+        <v>3232</v>
       </c>
       <c r="D39">
         <v>618</v>
       </c>
       <c r="E39">
-        <v>49952254</v>
+        <v>50717340</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="D40">
         <v>203</v>
       </c>
       <c r="E40">
-        <v>31506298</v>
+        <v>31669890</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1755,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>18</v>
       </c>
       <c r="E41">
-        <v>7109119</v>
+        <v>7309119</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>17378</v>
+        <v>17489</v>
       </c>
       <c r="D42">
         <v>3962</v>
       </c>
       <c r="E42">
-        <v>34884811</v>
+        <v>35252785</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10047</v>
+        <v>10149</v>
       </c>
       <c r="D43">
         <v>1532</v>
       </c>
       <c r="E43">
-        <v>40649326</v>
+        <v>41298475</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22284</v>
+        <v>22468</v>
       </c>
       <c r="D44">
         <v>3847</v>
       </c>
       <c r="E44">
-        <v>94781385</v>
+        <v>95998892</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>10333</v>
+        <v>10442</v>
       </c>
       <c r="D45">
         <v>1770</v>
       </c>
       <c r="E45">
-        <v>62678861</v>
+        <v>63651771</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>3420</v>
+        <v>3455</v>
       </c>
       <c r="D46">
         <v>601</v>
       </c>
       <c r="E46">
-        <v>29680967</v>
+        <v>30131418</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>1539</v>
+        <v>1555</v>
       </c>
       <c r="D47">
         <v>281</v>
       </c>
       <c r="E47">
-        <v>28104857</v>
+        <v>28443293</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -1958,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D48">
         <v>84</v>
       </c>
       <c r="E48">
-        <v>19318864</v>
+        <v>19555178</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -1987,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>4564350</v>
+        <v>4757318</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6056</v>
+        <v>6104</v>
       </c>
       <c r="D50">
         <v>1240</v>
       </c>
       <c r="E50">
-        <v>11676479</v>
+        <v>11822468</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>44035</v>
+        <v>44326</v>
       </c>
       <c r="D51">
-        <v>9392</v>
+        <v>9395</v>
       </c>
       <c r="E51">
-        <v>146650302</v>
+        <v>148258658</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>132137</v>
+        <v>132918</v>
       </c>
       <c r="D52">
-        <v>28674</v>
+        <v>28677</v>
       </c>
       <c r="E52">
-        <v>549771460</v>
+        <v>555380666</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>55423</v>
+        <v>55814</v>
       </c>
       <c r="D53">
         <v>11618</v>
       </c>
       <c r="E53">
-        <v>319079165</v>
+        <v>322895621</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>20975</v>
+        <v>21144</v>
       </c>
       <c r="D54">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E54">
-        <v>167596705</v>
+        <v>169694558</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10300</v>
+        <v>10412</v>
       </c>
       <c r="D55">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E55">
-        <v>157096609</v>
+        <v>159395628</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>3054</v>
+        <v>3081</v>
       </c>
       <c r="D56">
         <v>612</v>
       </c>
       <c r="E56">
-        <v>114451473</v>
+        <v>115535465</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2219,13 +2219,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D57">
         <v>75</v>
       </c>
       <c r="E57">
-        <v>25730417</v>
+        <v>26286132</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2248,13 +2248,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <v>14</v>
       </c>
       <c r="E58">
-        <v>2927936</v>
+        <v>2928036</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>48682</v>
+        <v>48940</v>
       </c>
       <c r="D60">
-        <v>11423</v>
+        <v>11424</v>
       </c>
       <c r="E60">
-        <v>125930346</v>
+        <v>126694951</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3607</v>
+        <v>3629</v>
       </c>
       <c r="D61">
         <v>781</v>
       </c>
       <c r="E61">
-        <v>7703174</v>
+        <v>7801040</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>11937</v>
+        <v>11976</v>
       </c>
       <c r="D62">
         <v>2775</v>
       </c>
       <c r="E62">
-        <v>29037906</v>
+        <v>29283818</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>4100</v>
+        <v>4112</v>
       </c>
       <c r="D63">
         <v>1032</v>
       </c>
       <c r="E63">
-        <v>13885109</v>
+        <v>13971813</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="D64">
         <v>386</v>
       </c>
       <c r="E64">
-        <v>7524294</v>
+        <v>7613879</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D65">
         <v>122</v>
       </c>
       <c r="E65">
-        <v>4878730</v>
+        <v>4910267</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>13349</v>
+        <v>13391</v>
       </c>
       <c r="D69">
         <v>2636</v>
       </c>
       <c r="E69">
-        <v>21456548</v>
+        <v>21536339</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="D70">
         <v>372</v>
       </c>
       <c r="E70">
-        <v>5384415</v>
+        <v>5389915</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5540</v>
+        <v>5551</v>
       </c>
       <c r="D71">
         <v>950</v>
       </c>
       <c r="E71">
-        <v>13572022</v>
+        <v>13611248</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="D72">
         <v>410</v>
       </c>
       <c r="E72">
-        <v>6174048</v>
+        <v>6193713</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2712,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D74">
         <v>58</v>
       </c>
       <c r="E74">
-        <v>1559783</v>
+        <v>1577830</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="D76">
         <v>554</v>
       </c>
       <c r="E76">
-        <v>7184190</v>
+        <v>7191145</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>36531</v>
+        <v>36805</v>
       </c>
       <c r="D77">
         <v>7443</v>
       </c>
       <c r="E77">
-        <v>107815211</v>
+        <v>109155637</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>109386</v>
+        <v>110243</v>
       </c>
       <c r="D78">
         <v>22703</v>
       </c>
       <c r="E78">
-        <v>421414511</v>
+        <v>427168145</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>44613</v>
+        <v>44975</v>
       </c>
       <c r="D79">
         <v>9039</v>
       </c>
       <c r="E79">
-        <v>250291235</v>
+        <v>253715444</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>15846</v>
+        <v>15995</v>
       </c>
       <c r="D80">
         <v>3200</v>
       </c>
       <c r="E80">
-        <v>119201175</v>
+        <v>121050797</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>7369</v>
+        <v>7452</v>
       </c>
       <c r="D81">
         <v>1375</v>
       </c>
       <c r="E81">
-        <v>106569657</v>
+        <v>108203180</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2873</v>
+        <v>2911</v>
       </c>
       <c r="D82">
         <v>613</v>
       </c>
       <c r="E82">
-        <v>98237078</v>
+        <v>100035535</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D83">
         <v>58</v>
       </c>
       <c r="E83">
-        <v>19749749</v>
+        <v>19816923</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -3002,13 +3002,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D84">
         <v>21</v>
       </c>
       <c r="E84">
-        <v>7403467</v>
+        <v>7440169</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>32595</v>
+        <v>32840</v>
       </c>
       <c r="D89">
         <v>7202</v>
       </c>
       <c r="E89">
-        <v>64426042</v>
+        <v>65097181</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>138432</v>
+        <v>139526</v>
       </c>
       <c r="D90">
-        <v>24702</v>
+        <v>24705</v>
       </c>
       <c r="E90">
-        <v>433847883</v>
+        <v>439329044</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>373802</v>
+        <v>376318</v>
       </c>
       <c r="D91">
-        <v>70736</v>
+        <v>70741</v>
       </c>
       <c r="E91">
-        <v>1419239304</v>
+        <v>1436366341</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>186729</v>
+        <v>188093</v>
       </c>
       <c r="D92">
-        <v>34169</v>
+        <v>34171</v>
       </c>
       <c r="E92">
-        <v>1114321917</v>
+        <v>1128060914</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>80893</v>
+        <v>81582</v>
       </c>
       <c r="D93">
         <v>13742</v>
       </c>
       <c r="E93">
-        <v>729840444</v>
+        <v>739515751</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>41480</v>
+        <v>41922</v>
       </c>
       <c r="D94">
-        <v>6937</v>
+        <v>6938</v>
       </c>
       <c r="E94">
-        <v>705715234</v>
+        <v>715706359</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>12950</v>
+        <v>13093</v>
       </c>
       <c r="D95">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="E95">
-        <v>554086012</v>
+        <v>561477304</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="D96">
         <v>361</v>
       </c>
       <c r="E96">
-        <v>142511710</v>
+        <v>142863619</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3379,13 +3379,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D97">
         <v>172</v>
       </c>
       <c r="E97">
-        <v>84157044</v>
+        <v>84757044</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -3408,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D98">
         <v>35</v>
       </c>
       <c r="E98">
-        <v>19278167</v>
+        <v>19878167</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -3466,13 +3466,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E100">
-        <v>20573857</v>
+        <v>20973857</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>124807</v>
+        <v>125706</v>
       </c>
       <c r="D103">
         <v>22747</v>
       </c>
       <c r="E103">
-        <v>251327101</v>
+        <v>254014337</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7444</v>
+        <v>7487</v>
       </c>
       <c r="D104">
         <v>1903</v>
       </c>
       <c r="E104">
-        <v>15040582</v>
+        <v>15162796</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>16823</v>
+        <v>16883</v>
       </c>
       <c r="D105">
         <v>4974</v>
       </c>
       <c r="E105">
-        <v>36912344</v>
+        <v>37253170</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>5558</v>
+        <v>5572</v>
       </c>
       <c r="D106">
         <v>1883</v>
       </c>
       <c r="E106">
-        <v>17042235</v>
+        <v>17124785</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2238</v>
+        <v>2246</v>
       </c>
       <c r="D107">
         <v>734</v>
       </c>
       <c r="E107">
-        <v>11334623</v>
+        <v>11441669</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D108">
         <v>227</v>
       </c>
       <c r="E108">
-        <v>11323054</v>
+        <v>11436327</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D110">
         <v>13</v>
       </c>
       <c r="E110">
-        <v>1648379</v>
+        <v>1758888</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8129</v>
+        <v>8152</v>
       </c>
       <c r="D112">
         <v>2079</v>
       </c>
       <c r="E112">
-        <v>11957851</v>
+        <v>11995881</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3125</v>
+        <v>3138</v>
       </c>
       <c r="D113">
         <v>688</v>
       </c>
       <c r="E113">
-        <v>7641020</v>
+        <v>7699954</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>9616</v>
+        <v>9638</v>
       </c>
       <c r="D114">
         <v>2228</v>
       </c>
       <c r="E114">
-        <v>26671365</v>
+        <v>26816614</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>3494</v>
+        <v>3505</v>
       </c>
       <c r="D115">
         <v>953</v>
       </c>
       <c r="E115">
-        <v>13645689</v>
+        <v>13744370</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -3930,13 +3930,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="D116">
         <v>374</v>
       </c>
       <c r="E116">
-        <v>6180986</v>
+        <v>6237348</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -3959,13 +3959,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D117">
         <v>151</v>
       </c>
       <c r="E117">
-        <v>5308588</v>
+        <v>5344247</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -3988,13 +3988,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D118">
         <v>48</v>
       </c>
       <c r="E118">
-        <v>3698496</v>
+        <v>3708496</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>6736</v>
+        <v>6764</v>
       </c>
       <c r="D120">
         <v>1419</v>
       </c>
       <c r="E120">
-        <v>10562304</v>
+        <v>10625631</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -4075,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D121">
         <v>241</v>
       </c>
       <c r="E121">
-        <v>4204308</v>
+        <v>4210006</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
@@ -4104,13 +4104,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D122">
         <v>137</v>
       </c>
       <c r="E122">
-        <v>2601011</v>
+        <v>2604011</v>
       </c>
       <c r="F122" t="s">
         <v>23</v>
@@ -4133,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D123">
         <v>63</v>
       </c>
       <c r="E123">
-        <v>965399</v>
+        <v>985399</v>
       </c>
       <c r="F123" t="s">
         <v>23</v>
@@ -4162,13 +4162,13 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D124">
         <v>23</v>
       </c>
       <c r="E124">
-        <v>280265</v>
+        <v>295835</v>
       </c>
       <c r="F124" t="s">
         <v>23</v>
@@ -4191,13 +4191,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D125">
         <v>9</v>
       </c>
       <c r="E125">
-        <v>193287</v>
+        <v>194787</v>
       </c>
       <c r="F125" t="s">
         <v>23</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>26532</v>
+        <v>26722</v>
       </c>
       <c r="D127">
         <v>5220</v>
       </c>
       <c r="E127">
-        <v>88940260</v>
+        <v>90061804</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>71244</v>
+        <v>71798</v>
       </c>
       <c r="D128">
         <v>15087</v>
       </c>
       <c r="E128">
-        <v>291521913</v>
+        <v>295885041</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>28174</v>
+        <v>28409</v>
       </c>
       <c r="D129">
         <v>5777</v>
       </c>
       <c r="E129">
-        <v>161156623</v>
+        <v>163385901</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>10095</v>
+        <v>10192</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130">
-        <v>81590953</v>
+        <v>82780910</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>4609</v>
+        <v>4660</v>
       </c>
       <c r="D131">
         <v>839</v>
       </c>
       <c r="E131">
-        <v>69024846</v>
+        <v>70074385</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="D132">
         <v>322</v>
       </c>
       <c r="E132">
-        <v>54771345</v>
+        <v>55724329</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4423,13 +4423,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D133">
         <v>39</v>
       </c>
       <c r="E133">
-        <v>10400469</v>
+        <v>10976533</v>
       </c>
       <c r="F133" t="s">
         <v>24</v>
@@ -4510,13 +4510,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136">
         <v>3</v>
       </c>
       <c r="E136">
-        <v>735396</v>
+        <v>759885</v>
       </c>
       <c r="F136" t="s">
         <v>24</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>20297</v>
+        <v>20425</v>
       </c>
       <c r="D137">
         <v>4629</v>
       </c>
       <c r="E137">
-        <v>40544513</v>
+        <v>40980919</v>
       </c>
       <c r="F137" t="s">
         <v>24</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>76374</v>
+        <v>77034</v>
       </c>
       <c r="D138">
-        <v>14940</v>
+        <v>14941</v>
       </c>
       <c r="E138">
-        <v>266830578</v>
+        <v>270756618</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>158990</v>
+        <v>160186</v>
       </c>
       <c r="D139">
-        <v>34903</v>
+        <v>34905</v>
       </c>
       <c r="E139">
-        <v>642345994</v>
+        <v>651699124</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>60036</v>
+        <v>60633</v>
       </c>
       <c r="D140">
-        <v>12946</v>
+        <v>12947</v>
       </c>
       <c r="E140">
-        <v>343070633</v>
+        <v>349006940</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>22124</v>
+        <v>22318</v>
       </c>
       <c r="D141">
         <v>4560</v>
       </c>
       <c r="E141">
-        <v>177972036</v>
+        <v>180422015</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>10328</v>
+        <v>10457</v>
       </c>
       <c r="D142">
         <v>1949</v>
       </c>
       <c r="E142">
-        <v>157470925</v>
+        <v>160265034</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4713,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3600</v>
+        <v>3636</v>
       </c>
       <c r="D143">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E143">
-        <v>135720865</v>
+        <v>136873726</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -4742,13 +4742,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D144">
         <v>84</v>
       </c>
       <c r="E144">
-        <v>21175802</v>
+        <v>21800063</v>
       </c>
       <c r="F144" t="s">
         <v>25</v>
@@ -4771,13 +4771,13 @@
         <v>10</v>
       </c>
       <c r="C145">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D145">
         <v>23</v>
       </c>
       <c r="E145">
-        <v>7969169</v>
+        <v>8169169</v>
       </c>
       <c r="F145" t="s">
         <v>25</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>54506</v>
+        <v>54863</v>
       </c>
       <c r="D149">
         <v>13104</v>
       </c>
       <c r="E149">
-        <v>110835839</v>
+        <v>111931051</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>94387</v>
+        <v>95198</v>
       </c>
       <c r="D150">
         <v>17245</v>
       </c>
       <c r="E150">
-        <v>322823978</v>
+        <v>327431614</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>190509</v>
+        <v>191883</v>
       </c>
       <c r="D151">
-        <v>39121</v>
+        <v>39122</v>
       </c>
       <c r="E151">
-        <v>743237012</v>
+        <v>752853364</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>67758</v>
+        <v>68341</v>
       </c>
       <c r="D152">
         <v>13824</v>
       </c>
       <c r="E152">
-        <v>384734514</v>
+        <v>390401845</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>23063</v>
+        <v>23285</v>
       </c>
       <c r="D153">
         <v>4616</v>
       </c>
       <c r="E153">
-        <v>179836842</v>
+        <v>182580556</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5032,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>10522</v>
+        <v>10667</v>
       </c>
       <c r="D154">
         <v>1981</v>
       </c>
       <c r="E154">
-        <v>156112226</v>
+        <v>158943771</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>3304</v>
+        <v>3332</v>
       </c>
       <c r="D155">
         <v>683</v>
       </c>
       <c r="E155">
-        <v>119986085</v>
+        <v>121589007</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D156">
         <v>96</v>
       </c>
       <c r="E156">
-        <v>29890938</v>
+        <v>30339104</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>67952</v>
+        <v>68375</v>
       </c>
       <c r="D160">
-        <v>15429</v>
+        <v>15430</v>
       </c>
       <c r="E160">
-        <v>127035141</v>
+        <v>128143282</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>32423</v>
+        <v>32707</v>
       </c>
       <c r="D161">
         <v>6481</v>
       </c>
       <c r="E161">
-        <v>111898422</v>
+        <v>113546439</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>78790</v>
+        <v>79354</v>
       </c>
       <c r="D162">
         <v>17077</v>
       </c>
       <c r="E162">
-        <v>334645142</v>
+        <v>339200445</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>33157</v>
+        <v>33457</v>
       </c>
       <c r="D163">
         <v>7056</v>
       </c>
       <c r="E163">
-        <v>193568432</v>
+        <v>196625330</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>11053</v>
+        <v>11141</v>
       </c>
       <c r="D164">
         <v>2409</v>
       </c>
       <c r="E164">
-        <v>92951169</v>
+        <v>94068515</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5351,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>5393</v>
+        <v>5449</v>
       </c>
       <c r="D165">
         <v>1048</v>
       </c>
       <c r="E165">
-        <v>85820885</v>
+        <v>86917104</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
@@ -5380,13 +5380,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1943</v>
+        <v>1969</v>
       </c>
       <c r="D166">
         <v>403</v>
       </c>
       <c r="E166">
-        <v>74062974</v>
+        <v>75575814</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D167">
         <v>43</v>
       </c>
       <c r="E167">
-        <v>9136620</v>
+        <v>9244527</v>
       </c>
       <c r="F167" t="s">
         <v>27</v>
@@ -5438,13 +5438,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D168">
         <v>13</v>
       </c>
       <c r="E168">
-        <v>6390086</v>
+        <v>6787855</v>
       </c>
       <c r="F168" t="s">
         <v>27</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>21703</v>
+        <v>21831</v>
       </c>
       <c r="D169">
         <v>5218</v>
       </c>
       <c r="E169">
-        <v>43013056</v>
+        <v>43401664</v>
       </c>
       <c r="F169" t="s">
         <v>27</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>91941</v>
+        <v>92776</v>
       </c>
       <c r="D170">
-        <v>16787</v>
+        <v>16788</v>
       </c>
       <c r="E170">
-        <v>312238584</v>
+        <v>316892448</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>212959</v>
+        <v>214680</v>
       </c>
       <c r="D171">
-        <v>40847</v>
+        <v>40851</v>
       </c>
       <c r="E171">
-        <v>848144067</v>
+        <v>860813661</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>75290</v>
+        <v>75960</v>
       </c>
       <c r="D172">
         <v>14024</v>
       </c>
       <c r="E172">
-        <v>446314857</v>
+        <v>453032534</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>26366</v>
+        <v>26597</v>
       </c>
       <c r="D173">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="E173">
-        <v>233043881</v>
+        <v>236026956</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>13106</v>
+        <v>13245</v>
       </c>
       <c r="D174">
         <v>2242</v>
       </c>
       <c r="E174">
-        <v>215589330</v>
+        <v>218408553</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>4198</v>
+        <v>4238</v>
       </c>
       <c r="D175">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E175">
-        <v>173316903</v>
+        <v>175196192</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5670,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D176">
         <v>123</v>
       </c>
       <c r="E176">
-        <v>41156119</v>
+        <v>41397223</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
@@ -5815,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>65406</v>
+        <v>65881</v>
       </c>
       <c r="D181">
-        <v>13666</v>
+        <v>13668</v>
       </c>
       <c r="E181">
-        <v>128274672</v>
+        <v>129497592</v>
       </c>
       <c r="F181" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>95813</v>
+        <v>95925</v>
       </c>
       <c r="D2">
-        <v>18939</v>
+        <v>18940</v>
       </c>
       <c r="E2">
-        <v>313024463</v>
+        <v>313552061</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>235283</v>
+        <v>235531</v>
       </c>
       <c r="D3">
-        <v>47379</v>
+        <v>47382</v>
       </c>
       <c r="E3">
-        <v>985859978</v>
+        <v>987593007</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>96038</v>
+        <v>96154</v>
       </c>
       <c r="D4">
         <v>18654</v>
       </c>
       <c r="E4">
-        <v>582119328</v>
+        <v>583145740</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>36048</v>
+        <v>36085</v>
       </c>
       <c r="D5">
         <v>6606</v>
       </c>
       <c r="E5">
-        <v>324821836</v>
+        <v>325434799</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18314</v>
+        <v>18335</v>
       </c>
       <c r="D6">
         <v>3247</v>
       </c>
       <c r="E6">
-        <v>310936625</v>
+        <v>311441952</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="D7">
         <v>1183</v>
       </c>
       <c r="E7">
-        <v>235545909</v>
+        <v>235636649</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D8">
         <v>184</v>
       </c>
       <c r="E8">
-        <v>69407839</v>
+        <v>69759449</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -856,13 +856,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>6890362</v>
+        <v>7090362</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>105746</v>
+        <v>105858</v>
       </c>
       <c r="D14">
-        <v>20878</v>
+        <v>20879</v>
       </c>
       <c r="E14">
-        <v>241560056</v>
+        <v>241859294</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>23621</v>
+        <v>23644</v>
       </c>
       <c r="D15">
-        <v>4825</v>
+        <v>4826</v>
       </c>
       <c r="E15">
-        <v>76871708</v>
+        <v>76981930</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>64787</v>
+        <v>64845</v>
       </c>
       <c r="D16">
-        <v>13565</v>
+        <v>13567</v>
       </c>
       <c r="E16">
-        <v>267719961</v>
+        <v>268179491</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>24109</v>
+        <v>24130</v>
       </c>
       <c r="D17">
         <v>4978</v>
       </c>
       <c r="E17">
-        <v>138835098</v>
+        <v>139022201</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8099</v>
+        <v>8107</v>
       </c>
       <c r="D18">
         <v>1626</v>
       </c>
       <c r="E18">
-        <v>64781048</v>
+        <v>64866379</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3854</v>
+        <v>3861</v>
       </c>
       <c r="D19">
         <v>722</v>
       </c>
       <c r="E19">
-        <v>58430419</v>
+        <v>58544203</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D20">
         <v>279</v>
       </c>
       <c r="E20">
-        <v>44713702</v>
+        <v>44755930</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1175,13 +1175,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>8219544</v>
+        <v>8276159</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22489</v>
+        <v>22528</v>
       </c>
       <c r="D23">
         <v>5054</v>
       </c>
       <c r="E23">
-        <v>46159560</v>
+        <v>46276587</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>34251</v>
+        <v>34294</v>
       </c>
       <c r="D24">
         <v>6479</v>
       </c>
       <c r="E24">
-        <v>128512077</v>
+        <v>128769984</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>81493</v>
+        <v>81571</v>
       </c>
       <c r="D25">
         <v>16435</v>
       </c>
       <c r="E25">
-        <v>361327130</v>
+        <v>361881277</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>31939</v>
+        <v>31967</v>
       </c>
       <c r="D26">
         <v>6470</v>
       </c>
       <c r="E26">
-        <v>192786234</v>
+        <v>193043910</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>11010</v>
+        <v>11022</v>
       </c>
       <c r="D27">
         <v>2233</v>
       </c>
       <c r="E27">
-        <v>94821511</v>
+        <v>94978196</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5171</v>
+        <v>5178</v>
       </c>
       <c r="D28">
         <v>983</v>
       </c>
       <c r="E28">
-        <v>77236093</v>
+        <v>77322529</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>24423</v>
+        <v>24450</v>
       </c>
       <c r="D34">
         <v>5600</v>
       </c>
       <c r="E34">
-        <v>50188221</v>
+        <v>50247054</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>18395</v>
+        <v>18417</v>
       </c>
       <c r="D35">
         <v>3777</v>
       </c>
       <c r="E35">
-        <v>59787018</v>
+        <v>59904612</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>54009</v>
+        <v>54078</v>
       </c>
       <c r="D36">
-        <v>11686</v>
+        <v>11687</v>
       </c>
       <c r="E36">
-        <v>214470916</v>
+        <v>214854462</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>21645</v>
+        <v>21658</v>
       </c>
       <c r="D37">
         <v>4647</v>
       </c>
       <c r="E37">
-        <v>122196896</v>
+        <v>122318396</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>6699</v>
+        <v>6706</v>
       </c>
       <c r="D38">
         <v>1426</v>
       </c>
       <c r="E38">
-        <v>52592549</v>
+        <v>52678262</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D39">
         <v>618</v>
       </c>
       <c r="E39">
-        <v>50717340</v>
+        <v>50746058</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D40">
         <v>203</v>
       </c>
       <c r="E40">
-        <v>31669890</v>
+        <v>31729160</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>17489</v>
+        <v>17522</v>
       </c>
       <c r="D42">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="E42">
-        <v>35252785</v>
+        <v>35312753</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10149</v>
+        <v>10164</v>
       </c>
       <c r="D43">
         <v>1532</v>
       </c>
       <c r="E43">
-        <v>41298475</v>
+        <v>41368709</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22468</v>
+        <v>22495</v>
       </c>
       <c r="D44">
         <v>3847</v>
       </c>
       <c r="E44">
-        <v>95998892</v>
+        <v>96171556</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>10442</v>
+        <v>10460</v>
       </c>
       <c r="D45">
         <v>1770</v>
       </c>
       <c r="E45">
-        <v>63651771</v>
+        <v>63810039</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>3455</v>
+        <v>3461</v>
       </c>
       <c r="D46">
         <v>601</v>
       </c>
       <c r="E46">
-        <v>30131418</v>
+        <v>30228969</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6104</v>
+        <v>6110</v>
       </c>
       <c r="D50">
         <v>1240</v>
       </c>
       <c r="E50">
-        <v>11822468</v>
+        <v>11832228</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>44326</v>
+        <v>44379</v>
       </c>
       <c r="D51">
         <v>9395</v>
       </c>
       <c r="E51">
-        <v>148258658</v>
+        <v>148480917</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>132918</v>
+        <v>133042</v>
       </c>
       <c r="D52">
-        <v>28677</v>
+        <v>28678</v>
       </c>
       <c r="E52">
-        <v>555380666</v>
+        <v>556202452</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>55814</v>
+        <v>55868</v>
       </c>
       <c r="D53">
         <v>11618</v>
       </c>
       <c r="E53">
-        <v>322895621</v>
+        <v>323387319</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>21144</v>
+        <v>21163</v>
       </c>
       <c r="D54">
         <v>4083</v>
       </c>
       <c r="E54">
-        <v>169694558</v>
+        <v>169884675</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10412</v>
+        <v>10424</v>
       </c>
       <c r="D55">
         <v>1798</v>
       </c>
       <c r="E55">
-        <v>159395628</v>
+        <v>159648834</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D56">
         <v>612</v>
       </c>
       <c r="E56">
-        <v>115535465</v>
+        <v>115575964</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2248,13 +2248,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>14</v>
       </c>
       <c r="E58">
-        <v>2928036</v>
+        <v>2940006</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>48940</v>
+        <v>49002</v>
       </c>
       <c r="D60">
-        <v>11424</v>
+        <v>11425</v>
       </c>
       <c r="E60">
-        <v>126694951</v>
+        <v>126859756</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3629</v>
+        <v>3635</v>
       </c>
       <c r="D61">
         <v>781</v>
       </c>
       <c r="E61">
-        <v>7801040</v>
+        <v>7820605</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>11976</v>
+        <v>12001</v>
       </c>
       <c r="D62">
         <v>2775</v>
       </c>
       <c r="E62">
-        <v>29283818</v>
+        <v>29366194</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>4112</v>
+        <v>4120</v>
       </c>
       <c r="D63">
         <v>1032</v>
       </c>
       <c r="E63">
-        <v>13971813</v>
+        <v>14052443</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>13391</v>
+        <v>13413</v>
       </c>
       <c r="D69">
         <v>2636</v>
       </c>
       <c r="E69">
-        <v>21536339</v>
+        <v>21576687</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D70">
         <v>372</v>
       </c>
       <c r="E70">
-        <v>5389915</v>
+        <v>5394633</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5551</v>
+        <v>5554</v>
       </c>
       <c r="D71">
         <v>950</v>
       </c>
       <c r="E71">
-        <v>13611248</v>
+        <v>13619158</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="D72">
         <v>410</v>
       </c>
       <c r="E72">
-        <v>6193713</v>
+        <v>6198213</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="D76">
         <v>554</v>
       </c>
       <c r="E76">
-        <v>7191145</v>
+        <v>7192645</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>36805</v>
+        <v>36839</v>
       </c>
       <c r="D77">
         <v>7443</v>
       </c>
       <c r="E77">
-        <v>109155637</v>
+        <v>109324043</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>110243</v>
+        <v>110368</v>
       </c>
       <c r="D78">
-        <v>22703</v>
+        <v>22704</v>
       </c>
       <c r="E78">
-        <v>427168145</v>
+        <v>427898394</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>44975</v>
+        <v>45017</v>
       </c>
       <c r="D79">
         <v>9039</v>
       </c>
       <c r="E79">
-        <v>253715444</v>
+        <v>254089152</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>15995</v>
+        <v>16011</v>
       </c>
       <c r="D80">
         <v>3200</v>
       </c>
       <c r="E80">
-        <v>121050797</v>
+        <v>121219154</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>7452</v>
+        <v>7462</v>
       </c>
       <c r="D81">
         <v>1375</v>
       </c>
       <c r="E81">
-        <v>108203180</v>
+        <v>108367258</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="D82">
         <v>613</v>
       </c>
       <c r="E82">
-        <v>100035535</v>
+        <v>100190007</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D83">
         <v>58</v>
       </c>
       <c r="E83">
-        <v>19816923</v>
+        <v>20016923</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>32840</v>
+        <v>32891</v>
       </c>
       <c r="D89">
         <v>7202</v>
       </c>
       <c r="E89">
-        <v>65097181</v>
+        <v>65197317</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>139526</v>
+        <v>139750</v>
       </c>
       <c r="D90">
         <v>24705</v>
       </c>
       <c r="E90">
-        <v>439329044</v>
+        <v>440224308</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>376318</v>
+        <v>376965</v>
       </c>
       <c r="D91">
-        <v>70741</v>
+        <v>70744</v>
       </c>
       <c r="E91">
-        <v>1436366341</v>
+        <v>1439680992</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>188093</v>
+        <v>188374</v>
       </c>
       <c r="D92">
-        <v>34171</v>
+        <v>34172</v>
       </c>
       <c r="E92">
-        <v>1128060914</v>
+        <v>1130508372</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>81582</v>
+        <v>81717</v>
       </c>
       <c r="D93">
         <v>13742</v>
       </c>
       <c r="E93">
-        <v>739515751</v>
+        <v>741043196</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>41922</v>
+        <v>42000</v>
       </c>
       <c r="D94">
         <v>6938</v>
       </c>
       <c r="E94">
-        <v>715706359</v>
+        <v>717287522</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>13093</v>
+        <v>13112</v>
       </c>
       <c r="D95">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="E95">
-        <v>561477304</v>
+        <v>562369200</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D96">
         <v>361</v>
       </c>
       <c r="E96">
-        <v>142863619</v>
+        <v>143182411</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>125706</v>
+        <v>126026</v>
       </c>
       <c r="D103">
-        <v>22747</v>
+        <v>22748</v>
       </c>
       <c r="E103">
-        <v>254014337</v>
+        <v>254773646</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7487</v>
+        <v>7500</v>
       </c>
       <c r="D104">
         <v>1903</v>
       </c>
       <c r="E104">
-        <v>15162796</v>
+        <v>15191929</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>16883</v>
+        <v>16901</v>
       </c>
       <c r="D105">
         <v>4974</v>
       </c>
       <c r="E105">
-        <v>37253170</v>
+        <v>37342763</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>5572</v>
+        <v>5575</v>
       </c>
       <c r="D106">
         <v>1883</v>
       </c>
       <c r="E106">
-        <v>17124785</v>
+        <v>17146285</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D107">
         <v>734</v>
       </c>
       <c r="E107">
-        <v>11441669</v>
+        <v>11453169</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8152</v>
+        <v>8159</v>
       </c>
       <c r="D112">
         <v>2079</v>
       </c>
       <c r="E112">
-        <v>11995881</v>
+        <v>12006440</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="D113">
         <v>688</v>
       </c>
       <c r="E113">
-        <v>7699954</v>
+        <v>7708914</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>9638</v>
+        <v>9645</v>
       </c>
       <c r="D114">
         <v>2228</v>
       </c>
       <c r="E114">
-        <v>26816614</v>
+        <v>26862009</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D115">
         <v>953</v>
       </c>
       <c r="E115">
-        <v>13744370</v>
+        <v>13762425</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>6764</v>
+        <v>6768</v>
       </c>
       <c r="D120">
         <v>1419</v>
       </c>
       <c r="E120">
-        <v>10625631</v>
+        <v>10629230</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -4075,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D121">
         <v>241</v>
       </c>
       <c r="E121">
-        <v>4210006</v>
+        <v>4213006</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>26722</v>
+        <v>26751</v>
       </c>
       <c r="D127">
         <v>5220</v>
       </c>
       <c r="E127">
-        <v>90061804</v>
+        <v>90197676</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>71798</v>
+        <v>71872</v>
       </c>
       <c r="D128">
         <v>15087</v>
       </c>
       <c r="E128">
-        <v>295885041</v>
+        <v>296418067</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>28409</v>
+        <v>28435</v>
       </c>
       <c r="D129">
         <v>5777</v>
       </c>
       <c r="E129">
-        <v>163385901</v>
+        <v>163604998</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>10192</v>
+        <v>10208</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130">
-        <v>82780910</v>
+        <v>82984753</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>4660</v>
+        <v>4670</v>
       </c>
       <c r="D131">
         <v>839</v>
       </c>
       <c r="E131">
-        <v>70074385</v>
+        <v>70280070</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D132">
         <v>322</v>
       </c>
       <c r="E132">
-        <v>55724329</v>
+        <v>55753185</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>20425</v>
+        <v>20455</v>
       </c>
       <c r="D137">
         <v>4629</v>
       </c>
       <c r="E137">
-        <v>40980919</v>
+        <v>41047495</v>
       </c>
       <c r="F137" t="s">
         <v>24</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>77034</v>
+        <v>77150</v>
       </c>
       <c r="D138">
         <v>14941</v>
       </c>
       <c r="E138">
-        <v>270756618</v>
+        <v>271377895</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>160186</v>
+        <v>160341</v>
       </c>
       <c r="D139">
-        <v>34905</v>
+        <v>34906</v>
       </c>
       <c r="E139">
-        <v>651699124</v>
+        <v>652687309</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>60633</v>
+        <v>60701</v>
       </c>
       <c r="D140">
         <v>12947</v>
       </c>
       <c r="E140">
-        <v>349006940</v>
+        <v>349632826</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>22318</v>
+        <v>22350</v>
       </c>
       <c r="D141">
         <v>4560</v>
       </c>
       <c r="E141">
-        <v>180422015</v>
+        <v>181033867</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>10457</v>
+        <v>10469</v>
       </c>
       <c r="D142">
         <v>1949</v>
       </c>
       <c r="E142">
-        <v>160265034</v>
+        <v>160561948</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4713,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3636</v>
+        <v>3641</v>
       </c>
       <c r="D143">
         <v>737</v>
       </c>
       <c r="E143">
-        <v>136873726</v>
+        <v>137162842</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>54863</v>
+        <v>54946</v>
       </c>
       <c r="D149">
         <v>13104</v>
       </c>
       <c r="E149">
-        <v>111931051</v>
+        <v>112095067</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>95198</v>
+        <v>95328</v>
       </c>
       <c r="D150">
-        <v>17245</v>
+        <v>17246</v>
       </c>
       <c r="E150">
-        <v>327431614</v>
+        <v>328066669</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>191883</v>
+        <v>192108</v>
       </c>
       <c r="D151">
         <v>39122</v>
       </c>
       <c r="E151">
-        <v>752853364</v>
+        <v>754189162</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>68341</v>
+        <v>68401</v>
       </c>
       <c r="D152">
-        <v>13824</v>
+        <v>13826</v>
       </c>
       <c r="E152">
-        <v>390401845</v>
+        <v>390909266</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>23285</v>
+        <v>23305</v>
       </c>
       <c r="D153">
         <v>4616</v>
       </c>
       <c r="E153">
-        <v>182580556</v>
+        <v>182794108</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5032,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>10667</v>
+        <v>10678</v>
       </c>
       <c r="D154">
         <v>1981</v>
       </c>
       <c r="E154">
-        <v>158943771</v>
+        <v>159168401</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="D155">
         <v>683</v>
       </c>
       <c r="E155">
-        <v>121589007</v>
+        <v>121749016</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>68375</v>
+        <v>68485</v>
       </c>
       <c r="D160">
-        <v>15430</v>
+        <v>15431</v>
       </c>
       <c r="E160">
-        <v>128143282</v>
+        <v>128359588</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>32707</v>
+        <v>32760</v>
       </c>
       <c r="D161">
         <v>6481</v>
       </c>
       <c r="E161">
-        <v>113546439</v>
+        <v>113835174</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>79354</v>
+        <v>79442</v>
       </c>
       <c r="D162">
         <v>17077</v>
       </c>
       <c r="E162">
-        <v>339200445</v>
+        <v>339755828</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>33457</v>
+        <v>33500</v>
       </c>
       <c r="D163">
         <v>7056</v>
       </c>
       <c r="E163">
-        <v>196625330</v>
+        <v>197039434</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>11141</v>
+        <v>11148</v>
       </c>
       <c r="D164">
         <v>2409</v>
       </c>
       <c r="E164">
-        <v>94068515</v>
+        <v>94143678</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5351,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>5449</v>
+        <v>5456</v>
       </c>
       <c r="D165">
         <v>1048</v>
       </c>
       <c r="E165">
-        <v>86917104</v>
+        <v>87070756</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>21831</v>
+        <v>21856</v>
       </c>
       <c r="D169">
         <v>5218</v>
       </c>
       <c r="E169">
-        <v>43401664</v>
+        <v>43462554</v>
       </c>
       <c r="F169" t="s">
         <v>27</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>92776</v>
+        <v>92918</v>
       </c>
       <c r="D170">
         <v>16788</v>
       </c>
       <c r="E170">
-        <v>316892448</v>
+        <v>317582606</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>214680</v>
+        <v>214947</v>
       </c>
       <c r="D171">
         <v>40851</v>
       </c>
       <c r="E171">
-        <v>860813661</v>
+        <v>862349236</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>75960</v>
+        <v>76051</v>
       </c>
       <c r="D172">
-        <v>14024</v>
+        <v>14025</v>
       </c>
       <c r="E172">
-        <v>453032534</v>
+        <v>453833376</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>26597</v>
+        <v>26632</v>
       </c>
       <c r="D173">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="E173">
-        <v>236026956</v>
+        <v>236555693</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>13245</v>
+        <v>13260</v>
       </c>
       <c r="D174">
         <v>2242</v>
       </c>
       <c r="E174">
-        <v>218408553</v>
+        <v>218835742</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>4238</v>
+        <v>4240</v>
       </c>
       <c r="D175">
         <v>809</v>
       </c>
       <c r="E175">
-        <v>175196192</v>
+        <v>175424264</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5699,13 +5699,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D177">
         <v>24</v>
       </c>
       <c r="E177">
-        <v>10520351</v>
+        <v>10720351</v>
       </c>
       <c r="F177" t="s">
         <v>28</v>
@@ -5815,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>65881</v>
+        <v>65989</v>
       </c>
       <c r="D181">
         <v>13668</v>
       </c>
       <c r="E181">
-        <v>129497592</v>
+        <v>129698291</v>
       </c>
       <c r="F181" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>95925</v>
+        <v>96198</v>
       </c>
       <c r="D2">
-        <v>18940</v>
+        <v>18942</v>
       </c>
       <c r="E2">
-        <v>313552061</v>
+        <v>314937262</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>235531</v>
+        <v>236375</v>
       </c>
       <c r="D3">
-        <v>47382</v>
+        <v>47388</v>
       </c>
       <c r="E3">
-        <v>987593007</v>
+        <v>993074924</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>96154</v>
+        <v>96502</v>
       </c>
       <c r="D4">
-        <v>18654</v>
+        <v>18656</v>
       </c>
       <c r="E4">
-        <v>583145740</v>
+        <v>586266046</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>36085</v>
+        <v>36248</v>
       </c>
       <c r="D5">
         <v>6606</v>
       </c>
       <c r="E5">
-        <v>325434799</v>
+        <v>327401228</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18335</v>
+        <v>18456</v>
       </c>
       <c r="D6">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="E6">
-        <v>311441952</v>
+        <v>314790578</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5869</v>
+        <v>5901</v>
       </c>
       <c r="D7">
         <v>1183</v>
       </c>
       <c r="E7">
-        <v>235636649</v>
+        <v>237426088</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D8">
         <v>184</v>
       </c>
       <c r="E8">
-        <v>69759449</v>
+        <v>70181867</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -827,13 +827,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>26009629</v>
+        <v>26542140</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>105858</v>
+        <v>106202</v>
       </c>
       <c r="D14">
-        <v>20879</v>
+        <v>20880</v>
       </c>
       <c r="E14">
-        <v>241859294</v>
+        <v>243147737</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>23644</v>
+        <v>23738</v>
       </c>
       <c r="D15">
-        <v>4826</v>
+        <v>4828</v>
       </c>
       <c r="E15">
-        <v>76981930</v>
+        <v>77491886</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>64845</v>
+        <v>65107</v>
       </c>
       <c r="D16">
         <v>13567</v>
       </c>
       <c r="E16">
-        <v>268179491</v>
+        <v>269967608</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>24130</v>
+        <v>24244</v>
       </c>
       <c r="D17">
         <v>4978</v>
       </c>
       <c r="E17">
-        <v>139022201</v>
+        <v>140018135</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8107</v>
+        <v>8170</v>
       </c>
       <c r="D18">
         <v>1626</v>
       </c>
       <c r="E18">
-        <v>64866379</v>
+        <v>65540198</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3861</v>
+        <v>3894</v>
       </c>
       <c r="D19">
         <v>722</v>
       </c>
       <c r="E19">
-        <v>58544203</v>
+        <v>59087625</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="D20">
         <v>279</v>
       </c>
       <c r="E20">
-        <v>44755930</v>
+        <v>45053038</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22528</v>
+        <v>22593</v>
       </c>
       <c r="D23">
         <v>5054</v>
       </c>
       <c r="E23">
-        <v>46276587</v>
+        <v>46460497</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>34294</v>
+        <v>34416</v>
       </c>
       <c r="D24">
         <v>6479</v>
       </c>
       <c r="E24">
-        <v>128769984</v>
+        <v>129508931</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>81571</v>
+        <v>81898</v>
       </c>
       <c r="D25">
-        <v>16435</v>
+        <v>16436</v>
       </c>
       <c r="E25">
-        <v>361881277</v>
+        <v>364106382</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>31967</v>
+        <v>32117</v>
       </c>
       <c r="D26">
         <v>6470</v>
       </c>
       <c r="E26">
-        <v>193043910</v>
+        <v>194363182</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>11022</v>
+        <v>11076</v>
       </c>
       <c r="D27">
         <v>2233</v>
       </c>
       <c r="E27">
-        <v>94978196</v>
+        <v>95554920</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5178</v>
+        <v>5214</v>
       </c>
       <c r="D28">
         <v>983</v>
       </c>
       <c r="E28">
-        <v>77322529</v>
+        <v>77968824</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="D29">
         <v>332</v>
       </c>
       <c r="E29">
-        <v>62258056</v>
+        <v>62618944</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
       <c r="E30">
-        <v>8987135</v>
+        <v>8988635</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>24450</v>
+        <v>24507</v>
       </c>
       <c r="D34">
         <v>5600</v>
       </c>
       <c r="E34">
-        <v>50247054</v>
+        <v>50430548</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>18417</v>
+        <v>18469</v>
       </c>
       <c r="D35">
         <v>3777</v>
       </c>
       <c r="E35">
-        <v>59904612</v>
+        <v>60152236</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>54078</v>
+        <v>54276</v>
       </c>
       <c r="D36">
-        <v>11687</v>
+        <v>11688</v>
       </c>
       <c r="E36">
-        <v>214854462</v>
+        <v>216199898</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>21658</v>
+        <v>21743</v>
       </c>
       <c r="D37">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="E37">
-        <v>122318396</v>
+        <v>123026439</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>6706</v>
+        <v>6738</v>
       </c>
       <c r="D38">
         <v>1426</v>
       </c>
       <c r="E38">
-        <v>52678262</v>
+        <v>53069532</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="D39">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E39">
-        <v>50746058</v>
+        <v>50966547</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D40">
         <v>203</v>
       </c>
       <c r="E40">
-        <v>31729160</v>
+        <v>31761854</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>17522</v>
+        <v>17567</v>
       </c>
       <c r="D42">
         <v>3963</v>
       </c>
       <c r="E42">
-        <v>35312753</v>
+        <v>35439726</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10164</v>
+        <v>10199</v>
       </c>
       <c r="D43">
         <v>1532</v>
       </c>
       <c r="E43">
-        <v>41368709</v>
+        <v>41640336</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22495</v>
+        <v>22562</v>
       </c>
       <c r="D44">
         <v>3847</v>
       </c>
       <c r="E44">
-        <v>96171556</v>
+        <v>96664168</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>10460</v>
+        <v>10493</v>
       </c>
       <c r="D45">
         <v>1770</v>
       </c>
       <c r="E45">
-        <v>63810039</v>
+        <v>64088727</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>3461</v>
+        <v>3467</v>
       </c>
       <c r="D46">
         <v>601</v>
       </c>
       <c r="E46">
-        <v>30228969</v>
+        <v>30277883</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="D47">
         <v>281</v>
       </c>
       <c r="E47">
-        <v>28443293</v>
+        <v>28905534</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6110</v>
+        <v>6127</v>
       </c>
       <c r="D50">
         <v>1240</v>
       </c>
       <c r="E50">
-        <v>11832228</v>
+        <v>11877809</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>44379</v>
+        <v>44548</v>
       </c>
       <c r="D51">
-        <v>9395</v>
+        <v>9397</v>
       </c>
       <c r="E51">
-        <v>148480917</v>
+        <v>149341213</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>133042</v>
+        <v>133532</v>
       </c>
       <c r="D52">
-        <v>28678</v>
+        <v>28680</v>
       </c>
       <c r="E52">
-        <v>556202452</v>
+        <v>559560608</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>55868</v>
+        <v>56101</v>
       </c>
       <c r="D53">
-        <v>11618</v>
+        <v>11620</v>
       </c>
       <c r="E53">
-        <v>323387319</v>
+        <v>325527691</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>21163</v>
+        <v>21256</v>
       </c>
       <c r="D54">
         <v>4083</v>
       </c>
       <c r="E54">
-        <v>169884675</v>
+        <v>170973533</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10424</v>
+        <v>10491</v>
       </c>
       <c r="D55">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="E55">
-        <v>159648834</v>
+        <v>161077422</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>3082</v>
+        <v>3098</v>
       </c>
       <c r="D56">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E56">
-        <v>115575964</v>
+        <v>116289725</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2219,13 +2219,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D57">
         <v>75</v>
       </c>
       <c r="E57">
-        <v>26286132</v>
+        <v>26526602</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2277,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
       <c r="E59">
-        <v>2601929</v>
+        <v>2801929</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>49002</v>
+        <v>49187</v>
       </c>
       <c r="D60">
-        <v>11425</v>
+        <v>11427</v>
       </c>
       <c r="E60">
-        <v>126859756</v>
+        <v>127477554</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="D61">
         <v>781</v>
       </c>
       <c r="E61">
-        <v>7820605</v>
+        <v>7836182</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>12001</v>
+        <v>12036</v>
       </c>
       <c r="D62">
         <v>2775</v>
       </c>
       <c r="E62">
-        <v>29366194</v>
+        <v>29639596</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>4120</v>
+        <v>4134</v>
       </c>
       <c r="D63">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E63">
-        <v>14052443</v>
+        <v>14149171</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1451</v>
+        <v>1464</v>
       </c>
       <c r="D64">
         <v>386</v>
       </c>
       <c r="E64">
-        <v>7613879</v>
+        <v>7755241</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D65">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65">
-        <v>4910267</v>
+        <v>4963061</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2480,13 +2480,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66">
         <v>31</v>
       </c>
       <c r="E66">
-        <v>6014901</v>
+        <v>6154661</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>13413</v>
+        <v>13452</v>
       </c>
       <c r="D69">
         <v>2636</v>
       </c>
       <c r="E69">
-        <v>21576687</v>
+        <v>21674286</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D70">
         <v>372</v>
       </c>
       <c r="E70">
-        <v>5394633</v>
+        <v>5396746</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5554</v>
+        <v>5567</v>
       </c>
       <c r="D71">
         <v>950</v>
       </c>
       <c r="E71">
-        <v>13619158</v>
+        <v>13666444</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="D72">
         <v>410</v>
       </c>
       <c r="E72">
-        <v>6198213</v>
+        <v>6221213</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2683,13 +2683,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D73">
         <v>145</v>
       </c>
       <c r="E73">
-        <v>2615325</v>
+        <v>2638904</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -2712,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D74">
         <v>58</v>
       </c>
       <c r="E74">
-        <v>1577830</v>
+        <v>1591538</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3770</v>
+        <v>3783</v>
       </c>
       <c r="D76">
         <v>554</v>
       </c>
       <c r="E76">
-        <v>7192645</v>
+        <v>7209114</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>36839</v>
+        <v>36924</v>
       </c>
       <c r="D77">
         <v>7443</v>
       </c>
       <c r="E77">
-        <v>109324043</v>
+        <v>109747303</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>110368</v>
+        <v>110768</v>
       </c>
       <c r="D78">
         <v>22704</v>
       </c>
       <c r="E78">
-        <v>427898394</v>
+        <v>430434576</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>45017</v>
+        <v>45214</v>
       </c>
       <c r="D79">
-        <v>9039</v>
+        <v>9041</v>
       </c>
       <c r="E79">
-        <v>254089152</v>
+        <v>255900470</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>16011</v>
+        <v>16081</v>
       </c>
       <c r="D80">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="E80">
-        <v>121219154</v>
+        <v>121945155</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>7462</v>
+        <v>7498</v>
       </c>
       <c r="D81">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E81">
-        <v>108367258</v>
+        <v>109097274</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2915</v>
+        <v>2926</v>
       </c>
       <c r="D82">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E82">
-        <v>100190007</v>
+        <v>100592632</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D83">
         <v>58</v>
       </c>
       <c r="E83">
-        <v>20016923</v>
+        <v>20452722</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -3060,13 +3060,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>2003885</v>
+        <v>2203885</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>32891</v>
+        <v>32974</v>
       </c>
       <c r="D89">
-        <v>7202</v>
+        <v>7203</v>
       </c>
       <c r="E89">
-        <v>65197317</v>
+        <v>65415750</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>139750</v>
+        <v>140140</v>
       </c>
       <c r="D90">
-        <v>24705</v>
+        <v>24708</v>
       </c>
       <c r="E90">
-        <v>440224308</v>
+        <v>442046449</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>376965</v>
+        <v>378032</v>
       </c>
       <c r="D91">
-        <v>70744</v>
+        <v>70752</v>
       </c>
       <c r="E91">
-        <v>1439680992</v>
+        <v>1446860620</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>188374</v>
+        <v>188965</v>
       </c>
       <c r="D92">
-        <v>34172</v>
+        <v>34173</v>
       </c>
       <c r="E92">
-        <v>1130508372</v>
+        <v>1137088431</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>81717</v>
+        <v>82054</v>
       </c>
       <c r="D93">
-        <v>13742</v>
+        <v>13746</v>
       </c>
       <c r="E93">
-        <v>741043196</v>
+        <v>746843579</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>42000</v>
+        <v>42222</v>
       </c>
       <c r="D94">
         <v>6938</v>
       </c>
       <c r="E94">
-        <v>717287522</v>
+        <v>723186658</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>13112</v>
+        <v>13220</v>
       </c>
       <c r="D95">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="E95">
-        <v>562369200</v>
+        <v>568880193</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="D96">
         <v>361</v>
       </c>
       <c r="E96">
-        <v>143182411</v>
+        <v>145259010</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3379,13 +3379,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D97">
         <v>172</v>
       </c>
       <c r="E97">
-        <v>84757044</v>
+        <v>86357044</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -3437,13 +3437,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D99">
         <v>82</v>
       </c>
       <c r="E99">
-        <v>39696788</v>
+        <v>39971552</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -3495,13 +3495,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D101">
         <v>21</v>
       </c>
       <c r="E101">
-        <v>12829007</v>
+        <v>13029007</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>126026</v>
+        <v>126347</v>
       </c>
       <c r="D103">
-        <v>22748</v>
+        <v>22752</v>
       </c>
       <c r="E103">
-        <v>254773646</v>
+        <v>255779039</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7500</v>
+        <v>7520</v>
       </c>
       <c r="D104">
         <v>1903</v>
       </c>
       <c r="E104">
-        <v>15191929</v>
+        <v>15283096</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>16901</v>
+        <v>16937</v>
       </c>
       <c r="D105">
         <v>4974</v>
       </c>
       <c r="E105">
-        <v>37342763</v>
+        <v>37545211</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>5575</v>
+        <v>5603</v>
       </c>
       <c r="D106">
         <v>1883</v>
       </c>
       <c r="E106">
-        <v>17146285</v>
+        <v>17425673</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2248</v>
+        <v>2262</v>
       </c>
       <c r="D107">
         <v>734</v>
       </c>
       <c r="E107">
-        <v>11453169</v>
+        <v>11699077</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D108">
         <v>227</v>
       </c>
       <c r="E108">
-        <v>11436327</v>
+        <v>11590108</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -3727,13 +3727,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D109">
         <v>69</v>
       </c>
       <c r="E109">
-        <v>8363628</v>
+        <v>8470246</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8159</v>
+        <v>8177</v>
       </c>
       <c r="D112">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="E112">
-        <v>12006440</v>
+        <v>12035413</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3141</v>
+        <v>3147</v>
       </c>
       <c r="D113">
         <v>688</v>
       </c>
       <c r="E113">
-        <v>7708914</v>
+        <v>7742738</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>9645</v>
+        <v>9665</v>
       </c>
       <c r="D114">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E114">
-        <v>26862009</v>
+        <v>26972243</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>3507</v>
+        <v>3513</v>
       </c>
       <c r="D115">
         <v>953</v>
       </c>
       <c r="E115">
-        <v>13762425</v>
+        <v>13885904</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -3930,13 +3930,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="D116">
         <v>374</v>
       </c>
       <c r="E116">
-        <v>6237348</v>
+        <v>6279505</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -3959,13 +3959,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D117">
         <v>151</v>
       </c>
       <c r="E117">
-        <v>5344247</v>
+        <v>5382863</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>6768</v>
+        <v>6781</v>
       </c>
       <c r="D120">
         <v>1419</v>
       </c>
       <c r="E120">
-        <v>10629230</v>
+        <v>10649943</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -4075,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D121">
         <v>241</v>
       </c>
       <c r="E121">
-        <v>4213006</v>
+        <v>4224506</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
@@ -4220,13 +4220,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126">
-        <v>170598</v>
+        <v>173598</v>
       </c>
       <c r="F126" t="s">
         <v>23</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>26751</v>
+        <v>26823</v>
       </c>
       <c r="D127">
         <v>5220</v>
       </c>
       <c r="E127">
-        <v>90197676</v>
+        <v>90551165</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>71872</v>
+        <v>72115</v>
       </c>
       <c r="D128">
         <v>15087</v>
       </c>
       <c r="E128">
-        <v>296418067</v>
+        <v>298054851</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>28435</v>
+        <v>28538</v>
       </c>
       <c r="D129">
         <v>5777</v>
       </c>
       <c r="E129">
-        <v>163604998</v>
+        <v>164487305</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>10208</v>
+        <v>10268</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130">
-        <v>82984753</v>
+        <v>83682898</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>4670</v>
+        <v>4703</v>
       </c>
       <c r="D131">
         <v>839</v>
       </c>
       <c r="E131">
-        <v>70280070</v>
+        <v>71217760</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="D132">
         <v>322</v>
       </c>
       <c r="E132">
-        <v>55753185</v>
+        <v>56135670</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>20455</v>
+        <v>20514</v>
       </c>
       <c r="D137">
         <v>4629</v>
       </c>
       <c r="E137">
-        <v>41047495</v>
+        <v>41229881</v>
       </c>
       <c r="F137" t="s">
         <v>24</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>77150</v>
+        <v>77400</v>
       </c>
       <c r="D138">
         <v>14941</v>
       </c>
       <c r="E138">
-        <v>271377895</v>
+        <v>272722666</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>160341</v>
+        <v>160903</v>
       </c>
       <c r="D139">
-        <v>34906</v>
+        <v>34914</v>
       </c>
       <c r="E139">
-        <v>652687309</v>
+        <v>656393946</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>60701</v>
+        <v>60926</v>
       </c>
       <c r="D140">
-        <v>12947</v>
+        <v>12948</v>
       </c>
       <c r="E140">
-        <v>349632826</v>
+        <v>351522265</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>22350</v>
+        <v>22448</v>
       </c>
       <c r="D141">
-        <v>4560</v>
+        <v>4563</v>
       </c>
       <c r="E141">
-        <v>181033867</v>
+        <v>182195679</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>10469</v>
+        <v>10545</v>
       </c>
       <c r="D142">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E142">
-        <v>160561948</v>
+        <v>161994665</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4713,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3641</v>
+        <v>3666</v>
       </c>
       <c r="D143">
         <v>737</v>
       </c>
       <c r="E143">
-        <v>137162842</v>
+        <v>138422852</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -4742,13 +4742,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D144">
         <v>84</v>
       </c>
       <c r="E144">
-        <v>21800063</v>
+        <v>22090992</v>
       </c>
       <c r="F144" t="s">
         <v>25</v>
@@ -4771,13 +4771,13 @@
         <v>10</v>
       </c>
       <c r="C145">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D145">
         <v>23</v>
       </c>
       <c r="E145">
-        <v>8169169</v>
+        <v>8293513</v>
       </c>
       <c r="F145" t="s">
         <v>25</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>54946</v>
+        <v>55111</v>
       </c>
       <c r="D149">
-        <v>13104</v>
+        <v>13105</v>
       </c>
       <c r="E149">
-        <v>112095067</v>
+        <v>112572796</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>95328</v>
+        <v>95610</v>
       </c>
       <c r="D150">
-        <v>17246</v>
+        <v>17247</v>
       </c>
       <c r="E150">
-        <v>328066669</v>
+        <v>329540018</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>192108</v>
+        <v>192747</v>
       </c>
       <c r="D151">
-        <v>39122</v>
+        <v>39125</v>
       </c>
       <c r="E151">
-        <v>754189162</v>
+        <v>758017187</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>68401</v>
+        <v>68674</v>
       </c>
       <c r="D152">
-        <v>13826</v>
+        <v>13828</v>
       </c>
       <c r="E152">
-        <v>390909266</v>
+        <v>393279117</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>23305</v>
+        <v>23396</v>
       </c>
       <c r="D153">
         <v>4616</v>
       </c>
       <c r="E153">
-        <v>182794108</v>
+        <v>183859776</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5032,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>10678</v>
+        <v>10746</v>
       </c>
       <c r="D154">
         <v>1981</v>
       </c>
       <c r="E154">
-        <v>159168401</v>
+        <v>160719754</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>3335</v>
+        <v>3353</v>
       </c>
       <c r="D155">
         <v>683</v>
       </c>
       <c r="E155">
-        <v>121749016</v>
+        <v>122623990</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D156">
         <v>96</v>
       </c>
       <c r="E156">
-        <v>30339104</v>
+        <v>30387049</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -5148,13 +5148,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D158">
         <v>6</v>
       </c>
       <c r="E158">
-        <v>2718981</v>
+        <v>3118981</v>
       </c>
       <c r="F158" t="s">
         <v>26</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>68485</v>
+        <v>68656</v>
       </c>
       <c r="D160">
         <v>15431</v>
       </c>
       <c r="E160">
-        <v>128359588</v>
+        <v>128824940</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>32760</v>
+        <v>32839</v>
       </c>
       <c r="D161">
         <v>6481</v>
       </c>
       <c r="E161">
-        <v>113835174</v>
+        <v>114281763</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>79442</v>
+        <v>79652</v>
       </c>
       <c r="D162">
-        <v>17077</v>
+        <v>17078</v>
       </c>
       <c r="E162">
-        <v>339755828</v>
+        <v>341112955</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>33500</v>
+        <v>33626</v>
       </c>
       <c r="D163">
         <v>7056</v>
       </c>
       <c r="E163">
-        <v>197039434</v>
+        <v>198201739</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>11148</v>
+        <v>11210</v>
       </c>
       <c r="D164">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="E164">
-        <v>94143678</v>
+        <v>95173258</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5351,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>5456</v>
+        <v>5497</v>
       </c>
       <c r="D165">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E165">
-        <v>87070756</v>
+        <v>87825854</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
@@ -5380,13 +5380,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="D166">
         <v>403</v>
       </c>
       <c r="E166">
-        <v>75575814</v>
+        <v>76247823</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D167">
         <v>43</v>
       </c>
       <c r="E167">
-        <v>9244527</v>
+        <v>9326849</v>
       </c>
       <c r="F167" t="s">
         <v>27</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>21856</v>
+        <v>21899</v>
       </c>
       <c r="D169">
         <v>5218</v>
       </c>
       <c r="E169">
-        <v>43462554</v>
+        <v>43572014</v>
       </c>
       <c r="F169" t="s">
         <v>27</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>92918</v>
+        <v>93188</v>
       </c>
       <c r="D170">
         <v>16788</v>
       </c>
       <c r="E170">
-        <v>317582606</v>
+        <v>318882197</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>214947</v>
+        <v>215644</v>
       </c>
       <c r="D171">
-        <v>40851</v>
+        <v>40855</v>
       </c>
       <c r="E171">
-        <v>862349236</v>
+        <v>866751070</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>76051</v>
+        <v>76325</v>
       </c>
       <c r="D172">
-        <v>14025</v>
+        <v>14027</v>
       </c>
       <c r="E172">
-        <v>453833376</v>
+        <v>456476267</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>26632</v>
+        <v>26766</v>
       </c>
       <c r="D173">
-        <v>4708</v>
+        <v>4710</v>
       </c>
       <c r="E173">
-        <v>236555693</v>
+        <v>238374734</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>13260</v>
+        <v>13326</v>
       </c>
       <c r="D174">
         <v>2242</v>
       </c>
       <c r="E174">
-        <v>218835742</v>
+        <v>220546348</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>4240</v>
+        <v>4265</v>
       </c>
       <c r="D175">
         <v>809</v>
       </c>
       <c r="E175">
-        <v>175424264</v>
+        <v>176397550</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5670,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D176">
         <v>123</v>
       </c>
       <c r="E176">
-        <v>41397223</v>
+        <v>41650359</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
@@ -5757,13 +5757,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D179">
         <v>14</v>
       </c>
       <c r="E179">
-        <v>5424731</v>
+        <v>5624731</v>
       </c>
       <c r="F179" t="s">
         <v>28</v>
@@ -5815,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>65989</v>
+        <v>66184</v>
       </c>
       <c r="D181">
         <v>13668</v>
       </c>
       <c r="E181">
-        <v>129698291</v>
+        <v>130332477</v>
       </c>
       <c r="F181" t="s">
         <v>28</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>96198</v>
+        <v>96429</v>
       </c>
       <c r="D2">
-        <v>18942</v>
+        <v>18946</v>
       </c>
       <c r="E2">
-        <v>314937262</v>
+        <v>316074315</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>236375</v>
+        <v>236967</v>
       </c>
       <c r="D3">
-        <v>47388</v>
+        <v>47394</v>
       </c>
       <c r="E3">
-        <v>993074924</v>
+        <v>997004995</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>96502</v>
+        <v>96787</v>
       </c>
       <c r="D4">
-        <v>18656</v>
+        <v>18657</v>
       </c>
       <c r="E4">
-        <v>586266046</v>
+        <v>588931743</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>36248</v>
+        <v>36371</v>
       </c>
       <c r="D5">
-        <v>6606</v>
+        <v>6609</v>
       </c>
       <c r="E5">
-        <v>327401228</v>
+        <v>329204120</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18456</v>
+        <v>18530</v>
       </c>
       <c r="D6">
         <v>3250</v>
       </c>
       <c r="E6">
-        <v>314790578</v>
+        <v>316771134</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5901</v>
+        <v>5933</v>
       </c>
       <c r="D7">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E7">
-        <v>237426088</v>
+        <v>239332945</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -798,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D8">
         <v>184</v>
       </c>
       <c r="E8">
-        <v>70181867</v>
+        <v>70507803</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -827,13 +827,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D9">
         <v>60</v>
       </c>
       <c r="E9">
-        <v>26542140</v>
+        <v>27102606</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -914,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>2801500</v>
+        <v>3001500</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -943,13 +943,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>410500</v>
+        <v>610500</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -972,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>106202</v>
+        <v>106513</v>
       </c>
       <c r="D14">
-        <v>20880</v>
+        <v>20884</v>
       </c>
       <c r="E14">
-        <v>243147737</v>
+        <v>244287144</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1001,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>23738</v>
+        <v>23793</v>
       </c>
       <c r="D15">
         <v>4828</v>
       </c>
       <c r="E15">
-        <v>77491886</v>
+        <v>77773999</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>65107</v>
+        <v>65264</v>
       </c>
       <c r="D16">
         <v>13567</v>
       </c>
       <c r="E16">
-        <v>269967608</v>
+        <v>271092280</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>24244</v>
+        <v>24317</v>
       </c>
       <c r="D17">
         <v>4978</v>
       </c>
       <c r="E17">
-        <v>140018135</v>
+        <v>140568214</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8170</v>
+        <v>8201</v>
       </c>
       <c r="D18">
         <v>1626</v>
       </c>
       <c r="E18">
-        <v>65540198</v>
+        <v>65956494</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>3894</v>
+        <v>3913</v>
       </c>
       <c r="D19">
         <v>722</v>
       </c>
       <c r="E19">
-        <v>59087625</v>
+        <v>59674113</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1146,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="D20">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E20">
-        <v>45053038</v>
+        <v>45647085</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22593</v>
+        <v>22634</v>
       </c>
       <c r="D23">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="E23">
-        <v>46460497</v>
+        <v>46576615</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>34416</v>
+        <v>34490</v>
       </c>
       <c r="D24">
-        <v>6479</v>
+        <v>6480</v>
       </c>
       <c r="E24">
-        <v>129508931</v>
+        <v>129882266</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1291,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>81898</v>
+        <v>82083</v>
       </c>
       <c r="D25">
         <v>16436</v>
       </c>
       <c r="E25">
-        <v>364106382</v>
+        <v>365563227</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>32117</v>
+        <v>32199</v>
       </c>
       <c r="D26">
         <v>6470</v>
       </c>
       <c r="E26">
-        <v>194363182</v>
+        <v>195217238</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1349,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>11076</v>
+        <v>11126</v>
       </c>
       <c r="D27">
         <v>2233</v>
       </c>
       <c r="E27">
-        <v>95554920</v>
+        <v>96445404</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>5214</v>
+        <v>5237</v>
       </c>
       <c r="D28">
         <v>983</v>
       </c>
       <c r="E28">
-        <v>77968824</v>
+        <v>78600005</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="D29">
         <v>332</v>
       </c>
       <c r="E29">
-        <v>62618944</v>
+        <v>63003863</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>35</v>
       </c>
       <c r="E30">
-        <v>8988635</v>
+        <v>9066587</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>24507</v>
+        <v>24558</v>
       </c>
       <c r="D34">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="E34">
-        <v>50430548</v>
+        <v>50580450</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1581,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>18469</v>
+        <v>18500</v>
       </c>
       <c r="D35">
         <v>3777</v>
       </c>
       <c r="E35">
-        <v>60152236</v>
+        <v>60317273</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>54276</v>
+        <v>54419</v>
       </c>
       <c r="D36">
         <v>11688</v>
       </c>
       <c r="E36">
-        <v>216199898</v>
+        <v>217065492</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>21743</v>
+        <v>21798</v>
       </c>
       <c r="D37">
         <v>4648</v>
       </c>
       <c r="E37">
-        <v>123026439</v>
+        <v>123500620</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>6738</v>
+        <v>6757</v>
       </c>
       <c r="D38">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E38">
-        <v>53069532</v>
+        <v>53293456</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3245</v>
+        <v>3257</v>
       </c>
       <c r="D39">
         <v>619</v>
       </c>
       <c r="E39">
-        <v>50966547</v>
+        <v>51267849</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1726,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D40">
         <v>203</v>
       </c>
       <c r="E40">
-        <v>31761854</v>
+        <v>31972720</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1755,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <v>18</v>
       </c>
       <c r="E41">
-        <v>7309119</v>
+        <v>7451301</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1784,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>17567</v>
+        <v>17595</v>
       </c>
       <c r="D42">
         <v>3963</v>
       </c>
       <c r="E42">
-        <v>35439726</v>
+        <v>35536501</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10199</v>
+        <v>10232</v>
       </c>
       <c r="D43">
         <v>1532</v>
       </c>
       <c r="E43">
-        <v>41640336</v>
+        <v>41816127</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>22562</v>
+        <v>22621</v>
       </c>
       <c r="D44">
         <v>3847</v>
       </c>
       <c r="E44">
-        <v>96664168</v>
+        <v>97082019</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>10493</v>
+        <v>10532</v>
       </c>
       <c r="D45">
         <v>1770</v>
       </c>
       <c r="E45">
-        <v>64088727</v>
+        <v>64434678</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -1900,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>3467</v>
+        <v>3472</v>
       </c>
       <c r="D46">
         <v>601</v>
       </c>
       <c r="E46">
-        <v>30277883</v>
+        <v>30305601</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="D47">
         <v>281</v>
       </c>
       <c r="E47">
-        <v>28905534</v>
+        <v>29058340</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -1958,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D48">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48">
-        <v>19555178</v>
+        <v>19956678</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6127</v>
+        <v>6138</v>
       </c>
       <c r="D50">
         <v>1240</v>
       </c>
       <c r="E50">
-        <v>11877809</v>
+        <v>11916361</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2045,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>44548</v>
+        <v>44677</v>
       </c>
       <c r="D51">
         <v>9397</v>
       </c>
       <c r="E51">
-        <v>149341213</v>
+        <v>150061559</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>133532</v>
+        <v>133939</v>
       </c>
       <c r="D52">
-        <v>28680</v>
+        <v>28685</v>
       </c>
       <c r="E52">
-        <v>559560608</v>
+        <v>562213714</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -2103,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>56101</v>
+        <v>56276</v>
       </c>
       <c r="D53">
-        <v>11620</v>
+        <v>11623</v>
       </c>
       <c r="E53">
-        <v>325527691</v>
+        <v>327349907</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2132,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>21256</v>
+        <v>21330</v>
       </c>
       <c r="D54">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E54">
-        <v>170973533</v>
+        <v>171819555</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2161,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10491</v>
+        <v>10534</v>
       </c>
       <c r="D55">
         <v>1801</v>
       </c>
       <c r="E55">
-        <v>161077422</v>
+        <v>162228412</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2190,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>3098</v>
+        <v>3121</v>
       </c>
       <c r="D56">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E56">
-        <v>116289725</v>
+        <v>117097893</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2219,13 +2219,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D57">
         <v>75</v>
       </c>
       <c r="E57">
-        <v>26526602</v>
+        <v>26935077</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2248,13 +2248,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>14</v>
       </c>
       <c r="E58">
-        <v>2940006</v>
+        <v>3297148</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>49187</v>
+        <v>49353</v>
       </c>
       <c r="D60">
-        <v>11427</v>
+        <v>11428</v>
       </c>
       <c r="E60">
-        <v>127477554</v>
+        <v>128135343</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2364,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>12036</v>
+        <v>12046</v>
       </c>
       <c r="D62">
         <v>2775</v>
       </c>
       <c r="E62">
-        <v>29639596</v>
+        <v>29699325</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2393,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>4134</v>
+        <v>4138</v>
       </c>
       <c r="D63">
         <v>1033</v>
       </c>
       <c r="E63">
-        <v>14149171</v>
+        <v>14182442</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D64">
         <v>386</v>
       </c>
       <c r="E64">
-        <v>7755241</v>
+        <v>7780141</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D65">
         <v>123</v>
       </c>
       <c r="E65">
-        <v>4963061</v>
+        <v>5081221</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2480,13 +2480,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66">
         <v>31</v>
       </c>
       <c r="E66">
-        <v>6154661</v>
+        <v>6277975</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2538,13 +2538,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
       <c r="E68">
-        <v>1347868</v>
+        <v>1450762</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>13452</v>
+        <v>13466</v>
       </c>
       <c r="D69">
         <v>2636</v>
       </c>
       <c r="E69">
-        <v>21674286</v>
+        <v>21705579</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2596,13 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="D70">
         <v>372</v>
       </c>
       <c r="E70">
-        <v>5396746</v>
+        <v>5420360</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -2625,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>5567</v>
+        <v>5574</v>
       </c>
       <c r="D71">
         <v>950</v>
       </c>
       <c r="E71">
-        <v>13666444</v>
+        <v>13691136</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -2654,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D72">
         <v>410</v>
       </c>
       <c r="E72">
-        <v>6221213</v>
+        <v>6222713</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -2683,13 +2683,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D73">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E73">
-        <v>2638904</v>
+        <v>2651904</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -2712,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D74">
         <v>58</v>
       </c>
       <c r="E74">
-        <v>1591538</v>
+        <v>1605765</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -2741,13 +2741,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <v>14</v>
       </c>
       <c r="E75">
-        <v>1104701</v>
+        <v>1158227</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="D76">
         <v>554</v>
       </c>
       <c r="E76">
-        <v>7209114</v>
+        <v>7222756</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -2799,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>36924</v>
+        <v>36994</v>
       </c>
       <c r="D77">
-        <v>7443</v>
+        <v>7444</v>
       </c>
       <c r="E77">
-        <v>109747303</v>
+        <v>110085343</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>110768</v>
+        <v>111029</v>
       </c>
       <c r="D78">
-        <v>22704</v>
+        <v>22705</v>
       </c>
       <c r="E78">
-        <v>430434576</v>
+        <v>432335901</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2857,13 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>45214</v>
+        <v>45297</v>
       </c>
       <c r="D79">
         <v>9041</v>
       </c>
       <c r="E79">
-        <v>255900470</v>
+        <v>256628077</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2886,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>16081</v>
+        <v>16125</v>
       </c>
       <c r="D80">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="E80">
-        <v>121945155</v>
+        <v>122430337</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>7498</v>
+        <v>7539</v>
       </c>
       <c r="D81">
         <v>1376</v>
       </c>
       <c r="E81">
-        <v>109097274</v>
+        <v>109960323</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2944,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2926</v>
+        <v>2942</v>
       </c>
       <c r="D82">
         <v>614</v>
       </c>
       <c r="E82">
-        <v>100592632</v>
+        <v>101072649</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2973,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D83">
         <v>58</v>
       </c>
       <c r="E83">
-        <v>20452722</v>
+        <v>20590220</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -3118,13 +3118,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>6</v>
       </c>
       <c r="E88">
-        <v>2763348</v>
+        <v>2783348</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>32974</v>
+        <v>33038</v>
       </c>
       <c r="D89">
         <v>7203</v>
       </c>
       <c r="E89">
-        <v>65415750</v>
+        <v>65645185</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>140140</v>
+        <v>140464</v>
       </c>
       <c r="D90">
-        <v>24708</v>
+        <v>24711</v>
       </c>
       <c r="E90">
-        <v>442046449</v>
+        <v>443819049</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3205,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>378032</v>
+        <v>378797</v>
       </c>
       <c r="D91">
-        <v>70752</v>
+        <v>70756</v>
       </c>
       <c r="E91">
-        <v>1446860620</v>
+        <v>1452402431</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>188965</v>
+        <v>189373</v>
       </c>
       <c r="D92">
-        <v>34173</v>
+        <v>34179</v>
       </c>
       <c r="E92">
-        <v>1137088431</v>
+        <v>1141694069</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -3263,13 +3263,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>82054</v>
+        <v>82267</v>
       </c>
       <c r="D93">
-        <v>13746</v>
+        <v>13747</v>
       </c>
       <c r="E93">
-        <v>746843579</v>
+        <v>751061868</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>42222</v>
+        <v>42379</v>
       </c>
       <c r="D94">
-        <v>6938</v>
+        <v>6939</v>
       </c>
       <c r="E94">
-        <v>723186658</v>
+        <v>728956101</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>13220</v>
+        <v>13299</v>
       </c>
       <c r="D95">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="E95">
-        <v>568880193</v>
+        <v>574630688</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -3350,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>1494</v>
+        <v>1507</v>
       </c>
       <c r="D96">
         <v>361</v>
       </c>
       <c r="E96">
-        <v>145259010</v>
+        <v>146588568</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -3379,13 +3379,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D97">
         <v>172</v>
       </c>
       <c r="E97">
-        <v>86357044</v>
+        <v>87427110</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -3408,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D98">
         <v>35</v>
       </c>
       <c r="E98">
-        <v>19878167</v>
+        <v>20078167</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -3437,13 +3437,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D99">
         <v>82</v>
       </c>
       <c r="E99">
-        <v>39971552</v>
+        <v>41158962</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -3495,13 +3495,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D101">
         <v>21</v>
       </c>
       <c r="E101">
-        <v>13029007</v>
+        <v>13229007</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -3553,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>126347</v>
+        <v>126574</v>
       </c>
       <c r="D103">
-        <v>22752</v>
+        <v>22755</v>
       </c>
       <c r="E103">
-        <v>255779039</v>
+        <v>256425252</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -3582,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>7520</v>
+        <v>7523</v>
       </c>
       <c r="D104">
         <v>1903</v>
       </c>
       <c r="E104">
-        <v>15283096</v>
+        <v>15296420</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3611,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>16937</v>
+        <v>16954</v>
       </c>
       <c r="D105">
         <v>4974</v>
       </c>
       <c r="E105">
-        <v>37545211</v>
+        <v>37602867</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -3640,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>5603</v>
+        <v>5609</v>
       </c>
       <c r="D106">
         <v>1883</v>
       </c>
       <c r="E106">
-        <v>17425673</v>
+        <v>17479118</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="D107">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E107">
-        <v>11699077</v>
+        <v>11842243</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D108">
         <v>227</v>
       </c>
       <c r="E108">
-        <v>11590108</v>
+        <v>11720025</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -3727,13 +3727,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D109">
         <v>69</v>
       </c>
       <c r="E109">
-        <v>8470246</v>
+        <v>8471746</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D110">
         <v>13</v>
       </c>
       <c r="E110">
-        <v>1758888</v>
+        <v>1836016</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
@@ -3814,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>8177</v>
+        <v>8201</v>
       </c>
       <c r="D112">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="E112">
-        <v>12035413</v>
+        <v>12067489</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -3843,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="D113">
         <v>688</v>
       </c>
       <c r="E113">
-        <v>7742738</v>
+        <v>7753892</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
@@ -3872,13 +3872,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>9665</v>
+        <v>9677</v>
       </c>
       <c r="D114">
         <v>2229</v>
       </c>
       <c r="E114">
-        <v>26972243</v>
+        <v>27048267</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -3901,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>3513</v>
+        <v>3519</v>
       </c>
       <c r="D115">
         <v>953</v>
       </c>
       <c r="E115">
-        <v>13885904</v>
+        <v>13931177</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
@@ -3959,13 +3959,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D117">
         <v>151</v>
       </c>
       <c r="E117">
-        <v>5382863</v>
+        <v>5404150</v>
       </c>
       <c r="F117" t="s">
         <v>22</v>
@@ -4046,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>6781</v>
+        <v>6785</v>
       </c>
       <c r="D120">
         <v>1419</v>
       </c>
       <c r="E120">
-        <v>10649943</v>
+        <v>10655198</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -4249,13 +4249,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>26823</v>
+        <v>26879</v>
       </c>
       <c r="D127">
         <v>5220</v>
       </c>
       <c r="E127">
-        <v>90551165</v>
+        <v>90851361</v>
       </c>
       <c r="F127" t="s">
         <v>24</v>
@@ -4278,13 +4278,13 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>72115</v>
+        <v>72277</v>
       </c>
       <c r="D128">
-        <v>15087</v>
+        <v>15088</v>
       </c>
       <c r="E128">
-        <v>298054851</v>
+        <v>299156537</v>
       </c>
       <c r="F128" t="s">
         <v>24</v>
@@ -4307,13 +4307,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>28538</v>
+        <v>28604</v>
       </c>
       <c r="D129">
         <v>5777</v>
       </c>
       <c r="E129">
-        <v>164487305</v>
+        <v>165088674</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4336,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>10268</v>
+        <v>10296</v>
       </c>
       <c r="D130">
         <v>2019</v>
       </c>
       <c r="E130">
-        <v>83682898</v>
+        <v>84017593</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4365,13 +4365,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>4703</v>
+        <v>4730</v>
       </c>
       <c r="D131">
         <v>839</v>
       </c>
       <c r="E131">
-        <v>71217760</v>
+        <v>71838697</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4394,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>1621</v>
+        <v>1634</v>
       </c>
       <c r="D132">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E132">
-        <v>56135670</v>
+        <v>56727120</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -4452,13 +4452,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134">
         <v>14</v>
       </c>
       <c r="E134">
-        <v>4795793</v>
+        <v>4889407</v>
       </c>
       <c r="F134" t="s">
         <v>24</v>
@@ -4539,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>20514</v>
+        <v>20556</v>
       </c>
       <c r="D137">
         <v>4629</v>
       </c>
       <c r="E137">
-        <v>41229881</v>
+        <v>41351632</v>
       </c>
       <c r="F137" t="s">
         <v>24</v>
@@ -4568,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>77400</v>
+        <v>77575</v>
       </c>
       <c r="D138">
-        <v>14941</v>
+        <v>14942</v>
       </c>
       <c r="E138">
-        <v>272722666</v>
+        <v>273630899</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -4597,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>160903</v>
+        <v>161289</v>
       </c>
       <c r="D139">
-        <v>34914</v>
+        <v>34915</v>
       </c>
       <c r="E139">
-        <v>656393946</v>
+        <v>658965214</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -4626,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>60926</v>
+        <v>61115</v>
       </c>
       <c r="D140">
         <v>12948</v>
       </c>
       <c r="E140">
-        <v>351522265</v>
+        <v>353284825</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -4655,13 +4655,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>22448</v>
+        <v>22520</v>
       </c>
       <c r="D141">
         <v>4563</v>
       </c>
       <c r="E141">
-        <v>182195679</v>
+        <v>183287348</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4684,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>10545</v>
+        <v>10593</v>
       </c>
       <c r="D142">
         <v>1950</v>
       </c>
       <c r="E142">
-        <v>161994665</v>
+        <v>163077271</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4713,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3666</v>
+        <v>3678</v>
       </c>
       <c r="D143">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E143">
-        <v>138422852</v>
+        <v>139051800</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -4742,13 +4742,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D144">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E144">
-        <v>22090992</v>
+        <v>22325227</v>
       </c>
       <c r="F144" t="s">
         <v>25</v>
@@ -4887,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>55111</v>
+        <v>55258</v>
       </c>
       <c r="D149">
-        <v>13105</v>
+        <v>13109</v>
       </c>
       <c r="E149">
-        <v>112572796</v>
+        <v>113060185</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>95610</v>
+        <v>95802</v>
       </c>
       <c r="D150">
-        <v>17247</v>
+        <v>17248</v>
       </c>
       <c r="E150">
-        <v>329540018</v>
+        <v>330455294</v>
       </c>
       <c r="F150" t="s">
         <v>26</v>
@@ -4945,13 +4945,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>192747</v>
+        <v>193198</v>
       </c>
       <c r="D151">
-        <v>39125</v>
+        <v>39128</v>
       </c>
       <c r="E151">
-        <v>758017187</v>
+        <v>760625904</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4974,13 +4974,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>68674</v>
+        <v>68834</v>
       </c>
       <c r="D152">
-        <v>13828</v>
+        <v>13830</v>
       </c>
       <c r="E152">
-        <v>393279117</v>
+        <v>394666295</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>23396</v>
+        <v>23470</v>
       </c>
       <c r="D153">
-        <v>4616</v>
+        <v>4618</v>
       </c>
       <c r="E153">
-        <v>183859776</v>
+        <v>184705786</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -5032,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>10746</v>
+        <v>10791</v>
       </c>
       <c r="D154">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E154">
-        <v>160719754</v>
+        <v>161606024</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>3353</v>
+        <v>3361</v>
       </c>
       <c r="D155">
         <v>683</v>
       </c>
       <c r="E155">
-        <v>122623990</v>
+        <v>123229566</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -5090,13 +5090,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D156">
         <v>96</v>
       </c>
       <c r="E156">
-        <v>30387049</v>
+        <v>30491848</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -5206,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>68656</v>
+        <v>68809</v>
       </c>
       <c r="D160">
-        <v>15431</v>
+        <v>15432</v>
       </c>
       <c r="E160">
-        <v>128824940</v>
+        <v>129264270</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -5235,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>32839</v>
+        <v>32916</v>
       </c>
       <c r="D161">
-        <v>6481</v>
+        <v>6482</v>
       </c>
       <c r="E161">
-        <v>114281763</v>
+        <v>114721728</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>79652</v>
+        <v>79860</v>
       </c>
       <c r="D162">
-        <v>17078</v>
+        <v>17081</v>
       </c>
       <c r="E162">
-        <v>341112955</v>
+        <v>342594272</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
@@ -5293,13 +5293,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>33626</v>
+        <v>33716</v>
       </c>
       <c r="D163">
-        <v>7056</v>
+        <v>7057</v>
       </c>
       <c r="E163">
-        <v>198201739</v>
+        <v>198995607</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5322,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>11210</v>
+        <v>11261</v>
       </c>
       <c r="D164">
         <v>2410</v>
       </c>
       <c r="E164">
-        <v>95173258</v>
+        <v>95789794</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
@@ -5351,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>5497</v>
+        <v>5525</v>
       </c>
       <c r="D165">
         <v>1049</v>
       </c>
       <c r="E165">
-        <v>87825854</v>
+        <v>88462880</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
@@ -5380,13 +5380,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D166">
         <v>403</v>
       </c>
       <c r="E166">
-        <v>76247823</v>
+        <v>76921078</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D167">
         <v>43</v>
       </c>
       <c r="E167">
-        <v>9326849</v>
+        <v>9707029</v>
       </c>
       <c r="F167" t="s">
         <v>27</v>
@@ -5467,13 +5467,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>21899</v>
+        <v>21952</v>
       </c>
       <c r="D169">
         <v>5218</v>
       </c>
       <c r="E169">
-        <v>43572014</v>
+        <v>43756757</v>
       </c>
       <c r="F169" t="s">
         <v>27</v>
@@ -5496,13 +5496,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>93188</v>
+        <v>93365</v>
       </c>
       <c r="D170">
         <v>16788</v>
       </c>
       <c r="E170">
-        <v>318882197</v>
+        <v>319725417</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -5525,13 +5525,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>215644</v>
+        <v>216086</v>
       </c>
       <c r="D171">
-        <v>40855</v>
+        <v>40857</v>
       </c>
       <c r="E171">
-        <v>866751070</v>
+        <v>869405978</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>76325</v>
+        <v>76497</v>
       </c>
       <c r="D172">
-        <v>14027</v>
+        <v>14028</v>
       </c>
       <c r="E172">
-        <v>456476267</v>
+        <v>458049146</v>
       </c>
       <c r="F172" t="s">
         <v>28</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>26766</v>
+        <v>26843</v>
       </c>
       <c r="D173">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="E173">
-        <v>238374734</v>
+        <v>239736040</v>
       </c>
       <c r="F173" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>13326</v>
+        <v>13389</v>
       </c>
       <c r="D174">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E174">
-        <v>220546348</v>
+        <v>222712272</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -5641,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>4265</v>
+        <v>4286</v>
       </c>
       <c r="D175">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E175">
-        <v>176397550</v>
+        <v>177729541</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
@@ -5670,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D176">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E176">
-        <v>41650359</v>
+        <v>42003834</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
@@ -5699,13 +5699,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D177">
         <v>24</v>
       </c>
       <c r="E177">
-        <v>10720351</v>
+        <v>10920351</v>
       </c>
       <c r="F177" t="s">
         <v>28</v>
@@ -5757,13 +5757,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D179">
         <v>14</v>
       </c>
       <c r="E179">
-        <v>5624731</v>
+        <v>5634731</v>
       </c>
       <c r="F179" t="s">
         <v>28</v>
@@ -5815,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>66184</v>
+        <v>66297</v>
       </c>
       <c r="D181">
         <v>13668</v>
       </c>
       <c r="E181">
-        <v>130332477</v>
+        <v>130674173</v>
       </c>
       <c r="F181" t="s">
         <v>28</v>
